--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$254</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$254</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Supermarket!$A$1:$AM$254</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Supermarket!$A$1:$AM$254</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2982,15 +2983,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3102,50 +3103,50 @@
   <dimension ref="A1:AM254"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D224" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A224" activeCellId="0" sqref="A224"/>
-      <selection pane="bottomRight" activeCell="H230" activeCellId="0" sqref="H230"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="S201" activeCellId="0" sqref="S201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="73.8056680161943"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="74.4493927125506"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="58.5951417004049"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.8825910931174"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="51.3117408906883"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="2" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="88.3724696356275"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="89.1214574898785"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
@@ -18654,10 +18655,10 @@
       </c>
       <c r="P196" s="10"/>
       <c r="Q196" s="7"/>
-      <c r="R196" s="7" t="s">
+      <c r="R196" s="25"/>
+      <c r="S196" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="S196" s="7"/>
       <c r="T196" s="7"/>
       <c r="U196" s="7"/>
       <c r="V196" s="7"/>
@@ -18764,7 +18765,7 @@
       <c r="AL197" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="AM197" s="25" t="n">
+      <c r="AM197" s="26" t="n">
         <v>501</v>
       </c>
     </row>
@@ -19552,7 +19553,7 @@
       <c r="AL207" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="AM207" s="25" t="n">
+      <c r="AM207" s="26" t="n">
         <v>502</v>
       </c>
     </row>
@@ -20103,7 +20104,7 @@
       <c r="AL214" s="19" t="s">
         <v>669</v>
       </c>
-      <c r="AM214" s="25" t="n">
+      <c r="AM214" s="26" t="n">
         <v>503</v>
       </c>
     </row>
@@ -20338,7 +20339,7 @@
       <c r="AL217" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="AM217" s="25" t="n">
+      <c r="AM217" s="26" t="n">
         <v>504</v>
       </c>
     </row>
@@ -20881,7 +20882,7 @@
         <v>207</v>
       </c>
       <c r="AL224" s="7"/>
-      <c r="AM224" s="26" t="n">
+      <c r="AM224" s="27" t="n">
         <v>312</v>
       </c>
     </row>
@@ -20907,7 +20908,7 @@
       <c r="G225" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="H225" s="27" t="s">
+      <c r="H225" s="25" t="s">
         <v>706</v>
       </c>
       <c r="I225" s="7"/>
@@ -20962,7 +20963,7 @@
         <v>208</v>
       </c>
       <c r="AL225" s="7"/>
-      <c r="AM225" s="26" t="n">
+      <c r="AM225" s="27" t="n">
         <v>312</v>
       </c>
     </row>
@@ -21043,7 +21044,7 @@
       <c r="AL226" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="AM226" s="26" t="n">
+      <c r="AM226" s="27" t="n">
         <v>312</v>
       </c>
     </row>
@@ -21675,7 +21676,7 @@
         <v>217</v>
       </c>
       <c r="AL234" s="7"/>
-      <c r="AM234" s="26" t="n">
+      <c r="AM234" s="27" t="n">
         <v>312</v>
       </c>
     </row>
@@ -21748,7 +21749,7 @@
       <c r="AL235" s="19" t="s">
         <v>743</v>
       </c>
-      <c r="AM235" s="26" t="n">
+      <c r="AM235" s="27" t="n">
         <v>302</v>
       </c>
     </row>
@@ -21892,7 +21893,7 @@
       <c r="AL237" s="13" t="s">
         <v>751</v>
       </c>
-      <c r="AM237" s="26" t="n">
+      <c r="AM237" s="27" t="n">
         <v>400</v>
       </c>
     </row>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -12,8 +12,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$254</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$254</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$254</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$254</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AI$254</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="811">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -912,10 +912,10 @@
     <t xml:space="preserve">Берн Лимонный лед - 0.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 2</t>
+    <t xml:space="preserve">Monster Ultra - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монстер Ультра - 0.5л</t>
   </si>
   <si>
     <t xml:space="preserve">Tea Availability</t>
@@ -945,7 +945,7 @@
     <t xml:space="preserve">4607042430879, 5449000027450</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Lemon - 1L</t>
+    <t xml:space="preserve">Fuze Lemon-Lemongrass - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 1л</t>
@@ -954,7 +954,7 @@
     <t xml:space="preserve">5449000189318, 5449000236241</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry - 0.5L</t>
+    <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
@@ -1014,7 +1014,7 @@
     <t xml:space="preserve">5449000233615</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry - 1L</t>
+    <t xml:space="preserve">Fuze Berry-Hibiscus - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лесн.ягоды - 1л</t>
@@ -1846,12 +1846,6 @@
     <t xml:space="preserve">NCB Дисплей</t>
   </si>
   <si>
-    <t xml:space="preserve">Other TCCC Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display NCB</t>
-  </si>
-  <si>
     <t xml:space="preserve">156
 157
 158
@@ -1893,7 +1887,7 @@
 161</t>
   </si>
   <si>
-    <t xml:space="preserve">NCB Display: Lead Fuze Lemon - 1L</t>
+    <t xml:space="preserve">NCB Display: Lead Fuze Lemon-Lemongrass - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">NCB Дисплей: Основной Фьюз Лимон - 1л</t>
@@ -2259,7 +2253,7 @@
     <t xml:space="preserve">Холодный Чай полка: Фьюз Манго-Ромашка - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">Ice Tea Shelf: Fuze Lemon - 1L</t>
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Lemon-Lemongrass - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Холодный Чай полка: Фьюз Лимон - 1л</t>
@@ -2341,10 +2335,7 @@
     <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
   </si>
   <si>
-    <t xml:space="preserve">DUMMY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of SKU/ Door RANGE</t>
+    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD</t>
@@ -2404,7 +2395,7 @@
     <t xml:space="preserve">2 door cooler, Open Front, Cash Cooler, Cash Cooler (Open Top)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD fuze and coca- cola shelf 2-3 </t>
+    <t xml:space="preserve">Cooler: Merch Priorty STD Fuze and Coca-Cola shelf 2-3 </t>
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола и Фьюз на 2- 3 полке</t>
@@ -2414,13 +2405,13 @@
 215</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD coca- cola 2-3</t>
+    <t xml:space="preserve">Cooler: Merch Priorty STD Coca - Cola shelf 2-3</t>
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола на 2-3 полке</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD coca- cola shelf 2-3</t>
+    <t xml:space="preserve">Cooler: Merch Priorty STD Fuze shelf 2-3</t>
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Фьюз на 2-3 полке</t>
@@ -2438,7 +2429,7 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Каждое SKU min 2 facing</t>
   </si>
   <si>
-    <t xml:space="preserve">number of facings every TCC SKUs on Scenes</t>
+    <t xml:space="preserve">each SKU hits facings target</t>
   </si>
   <si>
     <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=2</t>
@@ -2766,8 +2757,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
-        <bgColor rgb="FFCC99FF"/>
+        <fgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2785,7 +2776,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCCFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -2832,7 +2823,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2889,6 +2880,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2914,10 +2913,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2982,7 +2977,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFCCFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -2993,7 +2988,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99FF"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -3029,55 +3024,56 @@
   <dimension ref="A1:AM254"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H225" activeCellId="0" sqref="H225:I225"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="73.2712550607288"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.6720647773279"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="58.0566801619433"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.4534412955466"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="87.5141700404858"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.8259109311741"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="49.7894736842105"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="72.6275303643725"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.0607287449393"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.4736842105263"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.4534412955466"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.1336032388664"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.0890688259109"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.94736842105263"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.8744939271255"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="57.5101214574899"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.4372469635628"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="49.9473684210526"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.2307692307692"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.2712550607287"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="24.9028340080972"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.1457489878543"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.6194331983806"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="86.8016194331984"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.5748987854251"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3196,7 +3192,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
         <v>240</v>
       </c>
@@ -3257,7 +3253,7 @@
       </c>
       <c r="AM2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>241</v>
       </c>
@@ -3318,7 +3314,7 @@
       </c>
       <c r="AM3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <v>242</v>
       </c>
@@ -3381,7 +3377,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>243</v>
       </c>
@@ -3444,7 +3440,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>244</v>
       </c>
@@ -3505,7 +3501,7 @@
       </c>
       <c r="AM6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>245</v>
       </c>
@@ -3568,7 +3564,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>246</v>
       </c>
@@ -3631,7 +3627,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>247</v>
       </c>
@@ -3692,7 +3688,7 @@
       </c>
       <c r="AM9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>248</v>
       </c>
@@ -3755,7 +3751,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>249</v>
       </c>
@@ -3818,7 +3814,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>250</v>
       </c>
@@ -3881,7 +3877,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>185</v>
       </c>
@@ -3944,7 +3940,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>186</v>
       </c>
@@ -4007,7 +4003,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>187</v>
       </c>
@@ -4070,7 +4066,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>188</v>
       </c>
@@ -4131,7 +4127,7 @@
       </c>
       <c r="AM16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>242</v>
       </c>
@@ -4194,7 +4190,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>1</v>
       </c>
@@ -4261,7 +4257,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>2</v>
       </c>
@@ -4343,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>3</v>
       </c>
@@ -4425,7 +4421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>4</v>
       </c>
@@ -4507,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>5</v>
       </c>
@@ -4589,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>6</v>
       </c>
@@ -4671,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>7</v>
       </c>
@@ -4753,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>8</v>
       </c>
@@ -4835,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>9</v>
       </c>
@@ -4917,7 +4913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>10</v>
       </c>
@@ -4999,7 +4995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>11</v>
       </c>
@@ -5081,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>12</v>
       </c>
@@ -5163,7 +5159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>13</v>
       </c>
@@ -5245,7 +5241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>14</v>
       </c>
@@ -5327,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>15</v>
       </c>
@@ -5409,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>16</v>
       </c>
@@ -5491,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>17</v>
       </c>
@@ -5573,7 +5569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>18</v>
       </c>
@@ -5655,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>19</v>
       </c>
@@ -5737,7 +5733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>20</v>
       </c>
@@ -5819,7 +5815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>21</v>
       </c>
@@ -5901,7 +5897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>22</v>
       </c>
@@ -5983,7 +5979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>23</v>
       </c>
@@ -6065,7 +6061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>24</v>
       </c>
@@ -6147,7 +6143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>25</v>
       </c>
@@ -6229,7 +6225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>26</v>
       </c>
@@ -6311,7 +6307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>27</v>
       </c>
@@ -6393,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>28</v>
       </c>
@@ -6475,7 +6471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>29</v>
       </c>
@@ -6557,7 +6553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>30</v>
       </c>
@@ -6639,7 +6635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>31</v>
       </c>
@@ -6721,7 +6717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>32</v>
       </c>
@@ -6803,7 +6799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>33</v>
       </c>
@@ -6885,7 +6881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>34</v>
       </c>
@@ -6967,7 +6963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>35</v>
       </c>
@@ -7049,7 +7045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>36</v>
       </c>
@@ -7131,7 +7127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>37</v>
       </c>
@@ -7213,7 +7209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>38</v>
       </c>
@@ -7295,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>39</v>
       </c>
@@ -7377,7 +7373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>40</v>
       </c>
@@ -7459,7 +7455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>41</v>
       </c>
@@ -7526,7 +7522,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>42</v>
       </c>
@@ -7608,7 +7604,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>43</v>
       </c>
@@ -7690,7 +7686,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>44</v>
       </c>
@@ -7772,7 +7768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>45</v>
       </c>
@@ -7854,7 +7850,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>46</v>
       </c>
@@ -7936,7 +7932,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>47</v>
       </c>
@@ -8018,7 +8014,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <v>48</v>
       </c>
@@ -8100,7 +8096,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <v>49</v>
       </c>
@@ -8182,7 +8178,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>50</v>
       </c>
@@ -8264,7 +8260,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <v>51</v>
       </c>
@@ -8346,7 +8342,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>52</v>
       </c>
@@ -8413,7 +8409,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>53</v>
       </c>
@@ -8495,7 +8491,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>54</v>
       </c>
@@ -8577,7 +8573,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
         <v>55</v>
       </c>
@@ -8659,7 +8655,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
         <v>56</v>
       </c>
@@ -8741,7 +8737,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <v>57</v>
       </c>
@@ -8823,7 +8819,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <v>58</v>
       </c>
@@ -8905,7 +8901,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
         <v>59</v>
       </c>
@@ -8987,7 +8983,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
         <v>60</v>
       </c>
@@ -9003,27 +8999,26 @@
       <c r="E77" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="F77" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G77" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="H77" s="6" t="s">
+      <c r="H77" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6" t="n">
+      <c r="I77" s="14"/>
+      <c r="J77" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6" t="str">
-        <f aca="false">F77</f>
-        <v>NEW SKU 2</v>
-      </c>
-      <c r="N77" s="9" t="n">
-        <v>111111</v>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="N77" s="15" t="n">
+        <v>5060517888794</v>
       </c>
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
@@ -9069,7 +9064,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <v>61</v>
       </c>
@@ -9136,7 +9131,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
         <v>62</v>
       </c>
@@ -9171,7 +9166,7 @@
         <f aca="false">F79</f>
         <v>Fuze Mango-Camomile - 0.5L</v>
       </c>
-      <c r="N79" s="14" t="s">
+      <c r="N79" s="16" t="s">
         <v>274</v>
       </c>
       <c r="O79" s="9"/>
@@ -9218,7 +9213,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
         <v>63</v>
       </c>
@@ -9251,9 +9246,9 @@
       <c r="L80" s="6"/>
       <c r="M80" s="6" t="str">
         <f aca="false">F80</f>
-        <v>Fuze Lemon - 1L</v>
-      </c>
-      <c r="N80" s="14" t="s">
+        <v>Fuze Lemon-Lemongrass - 1L</v>
+      </c>
+      <c r="N80" s="16" t="s">
         <v>277</v>
       </c>
       <c r="O80" s="9"/>
@@ -9300,7 +9295,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
         <v>64</v>
       </c>
@@ -9333,9 +9328,9 @@
       <c r="L81" s="6"/>
       <c r="M81" s="6" t="str">
         <f aca="false">F81</f>
-        <v>Fuze Berry - 0.5L</v>
-      </c>
-      <c r="N81" s="14" t="s">
+        <v>Fuze Berry-Hibiscus - 0.5L</v>
+      </c>
+      <c r="N81" s="16" t="s">
         <v>280</v>
       </c>
       <c r="O81" s="9"/>
@@ -9382,7 +9377,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
         <v>65</v>
       </c>
@@ -9464,7 +9459,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
         <v>66</v>
       </c>
@@ -9499,7 +9494,7 @@
         <f aca="false">F83</f>
         <v>Fuze Peach-Rose - 0.5L</v>
       </c>
-      <c r="N83" s="14" t="s">
+      <c r="N83" s="16" t="s">
         <v>286</v>
       </c>
       <c r="O83" s="9"/>
@@ -9546,7 +9541,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
         <v>67</v>
       </c>
@@ -9628,7 +9623,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="n">
         <v>68</v>
       </c>
@@ -9710,7 +9705,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
         <v>69</v>
       </c>
@@ -9745,7 +9740,7 @@
         <f aca="false">F86</f>
         <v>Fuze Peach-Rose - 1.5L</v>
       </c>
-      <c r="N86" s="14" t="s">
+      <c r="N86" s="16" t="s">
         <v>294</v>
       </c>
       <c r="O86" s="9"/>
@@ -9792,7 +9787,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="n">
         <v>70</v>
       </c>
@@ -9874,7 +9869,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
         <v>71</v>
       </c>
@@ -9907,9 +9902,9 @@
       <c r="L88" s="6"/>
       <c r="M88" s="6" t="str">
         <f aca="false">F88</f>
-        <v>Fuze Berry - 1L</v>
-      </c>
-      <c r="N88" s="14" t="s">
+        <v>Fuze Berry-Hibiscus - 1L</v>
+      </c>
+      <c r="N88" s="16" t="s">
         <v>300</v>
       </c>
       <c r="O88" s="9"/>
@@ -9956,7 +9951,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="n">
         <v>72</v>
       </c>
@@ -10023,7 +10018,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="n">
         <v>73</v>
       </c>
@@ -10105,7 +10100,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
         <v>74</v>
       </c>
@@ -10187,7 +10182,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="n">
         <v>75</v>
       </c>
@@ -10269,7 +10264,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="n">
         <v>76</v>
       </c>
@@ -10351,7 +10346,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="n">
         <v>77</v>
       </c>
@@ -10433,7 +10428,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
         <v>78</v>
       </c>
@@ -10515,7 +10510,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="n">
         <v>79</v>
       </c>
@@ -10597,7 +10592,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="n">
         <v>80</v>
       </c>
@@ -10679,7 +10674,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="n">
         <v>81</v>
       </c>
@@ -10761,7 +10756,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="n">
         <v>82</v>
       </c>
@@ -10843,7 +10838,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
         <v>83</v>
       </c>
@@ -10925,7 +10920,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
         <v>84</v>
       </c>
@@ -11007,7 +11002,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
         <v>85</v>
       </c>
@@ -11089,7 +11084,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="n">
         <v>86</v>
       </c>
@@ -11171,7 +11166,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="n">
         <v>87</v>
       </c>
@@ -11253,7 +11248,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="n">
         <v>88</v>
       </c>
@@ -11335,7 +11330,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="n">
         <v>89</v>
       </c>
@@ -11417,7 +11412,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="n">
         <v>90</v>
       </c>
@@ -11499,7 +11494,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="n">
         <v>91</v>
       </c>
@@ -11581,7 +11576,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="n">
         <v>92</v>
       </c>
@@ -11663,7 +11658,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="n">
         <v>93</v>
       </c>
@@ -11745,7 +11740,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="n">
         <v>94</v>
       </c>
@@ -11827,7 +11822,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="n">
         <v>95</v>
       </c>
@@ -11909,7 +11904,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="n">
         <v>96</v>
       </c>
@@ -11967,7 +11962,7 @@
       <c r="Z113" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="AA113" s="15"/>
+      <c r="AA113" s="17"/>
       <c r="AB113" s="6"/>
       <c r="AC113" s="6"/>
       <c r="AD113" s="6" t="s">
@@ -11991,7 +11986,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="n">
         <v>97</v>
       </c>
@@ -12073,7 +12068,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="n">
         <v>98</v>
       </c>
@@ -12155,7 +12150,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="n">
         <v>99</v>
       </c>
@@ -12237,7 +12232,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="n">
         <v>100</v>
       </c>
@@ -12319,7 +12314,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="n">
         <v>101</v>
       </c>
@@ -12401,7 +12396,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="n">
         <v>102</v>
       </c>
@@ -12483,7 +12478,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="n">
         <v>103</v>
       </c>
@@ -12565,7 +12560,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="n">
         <v>104</v>
       </c>
@@ -12647,7 +12642,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="n">
         <v>105</v>
       </c>
@@ -12729,7 +12724,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="n">
         <v>106</v>
       </c>
@@ -12811,7 +12806,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="n">
         <v>107</v>
       </c>
@@ -12893,7 +12888,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="n">
         <v>108</v>
       </c>
@@ -12975,7 +12970,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="n">
         <v>109</v>
       </c>
@@ -13057,7 +13052,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="n">
         <v>110</v>
       </c>
@@ -13139,7 +13134,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="n">
         <v>111</v>
       </c>
@@ -13221,7 +13216,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="n">
         <v>112</v>
       </c>
@@ -13303,7 +13298,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="n">
         <v>113</v>
       </c>
@@ -13385,7 +13380,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="n">
         <v>114</v>
       </c>
@@ -13467,7 +13462,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="n">
         <v>115</v>
       </c>
@@ -13549,7 +13544,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="n">
         <v>116</v>
       </c>
@@ -13631,7 +13626,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="n">
         <v>117</v>
       </c>
@@ -13713,7 +13708,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="n">
         <v>118</v>
       </c>
@@ -13795,7 +13790,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="n">
         <v>119</v>
       </c>
@@ -13877,7 +13872,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="n">
         <v>120</v>
       </c>
@@ -13959,7 +13954,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="n">
         <v>121</v>
       </c>
@@ -14041,7 +14036,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="n">
         <v>122</v>
       </c>
@@ -14123,7 +14118,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="n">
         <v>123</v>
       </c>
@@ -14205,7 +14200,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="n">
         <v>124</v>
       </c>
@@ -14287,7 +14282,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="n">
         <v>125</v>
       </c>
@@ -14369,7 +14364,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="n">
         <v>126</v>
       </c>
@@ -14451,7 +14446,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="n">
         <v>127</v>
       </c>
@@ -14533,7 +14528,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="n">
         <v>128</v>
       </c>
@@ -14615,7 +14610,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="n">
         <v>129</v>
       </c>
@@ -14697,7 +14692,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="n">
         <v>130</v>
       </c>
@@ -14779,7 +14774,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="n">
         <v>131</v>
       </c>
@@ -14821,7 +14816,7 @@
       <c r="S148" s="6"/>
       <c r="T148" s="6"/>
       <c r="U148" s="6"/>
-      <c r="V148" s="16"/>
+      <c r="V148" s="18"/>
       <c r="W148" s="6"/>
       <c r="X148" s="6" t="s">
         <v>47</v>
@@ -14849,14 +14844,14 @@
       <c r="AK148" s="6" t="n">
         <v>131</v>
       </c>
-      <c r="AL148" s="17" t="s">
+      <c r="AL148" s="19" t="s">
         <v>475</v>
       </c>
       <c r="AM148" s="6" t="n">
         <v>302</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="n">
         <v>132</v>
       </c>
@@ -14906,7 +14901,7 @@
       </c>
       <c r="T149" s="6"/>
       <c r="U149" s="6"/>
-      <c r="V149" s="16"/>
+      <c r="V149" s="18"/>
       <c r="W149" s="6"/>
       <c r="X149" s="6" t="s">
         <v>47</v>
@@ -14937,7 +14932,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="n">
         <v>133</v>
       </c>
@@ -14981,7 +14976,7 @@
       </c>
       <c r="T150" s="6"/>
       <c r="U150" s="6"/>
-      <c r="V150" s="16" t="s">
+      <c r="V150" s="18" t="s">
         <v>485</v>
       </c>
       <c r="W150" s="6"/>
@@ -15014,7 +15009,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="n">
         <v>134</v>
       </c>
@@ -15062,7 +15057,7 @@
       </c>
       <c r="T151" s="6"/>
       <c r="U151" s="6"/>
-      <c r="V151" s="16"/>
+      <c r="V151" s="18"/>
       <c r="W151" s="6"/>
       <c r="X151" s="6" t="s">
         <v>47</v>
@@ -15095,7 +15090,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="n">
         <v>135</v>
       </c>
@@ -15135,7 +15130,7 @@
       <c r="S152" s="6"/>
       <c r="T152" s="6"/>
       <c r="U152" s="6"/>
-      <c r="V152" s="16"/>
+      <c r="V152" s="18"/>
       <c r="W152" s="6"/>
       <c r="X152" s="6" t="s">
         <v>47</v>
@@ -15174,7 +15169,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="n">
         <v>136</v>
       </c>
@@ -15222,7 +15217,7 @@
       </c>
       <c r="T153" s="6"/>
       <c r="U153" s="6"/>
-      <c r="V153" s="16"/>
+      <c r="V153" s="18"/>
       <c r="W153" s="6"/>
       <c r="X153" s="6" t="s">
         <v>47</v>
@@ -15253,7 +15248,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="n">
         <v>137</v>
       </c>
@@ -15301,7 +15296,7 @@
       </c>
       <c r="T154" s="6"/>
       <c r="U154" s="6"/>
-      <c r="V154" s="16"/>
+      <c r="V154" s="18"/>
       <c r="W154" s="6"/>
       <c r="X154" s="6" t="s">
         <v>47</v>
@@ -15332,7 +15327,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="n">
         <v>138</v>
       </c>
@@ -15363,7 +15358,7 @@
       </c>
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
-      <c r="M155" s="18" t="s">
+      <c r="M155" s="20" t="s">
         <v>502</v>
       </c>
       <c r="N155" s="9" t="n">
@@ -15379,7 +15374,7 @@
         <v>94</v>
       </c>
       <c r="T155" s="6"/>
-      <c r="U155" s="16"/>
+      <c r="U155" s="18"/>
       <c r="V155" s="6"/>
       <c r="W155" s="6"/>
       <c r="X155" s="6" t="s">
@@ -15411,7 +15406,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="n">
         <v>139</v>
       </c>
@@ -15459,7 +15454,7 @@
       </c>
       <c r="T156" s="6"/>
       <c r="U156" s="6"/>
-      <c r="V156" s="16"/>
+      <c r="V156" s="18"/>
       <c r="W156" s="6"/>
       <c r="X156" s="6" t="s">
         <v>47</v>
@@ -15490,7 +15485,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="n">
         <v>140</v>
       </c>
@@ -15532,7 +15527,7 @@
       <c r="S157" s="6"/>
       <c r="T157" s="6"/>
       <c r="U157" s="6"/>
-      <c r="V157" s="16"/>
+      <c r="V157" s="18"/>
       <c r="W157" s="6"/>
       <c r="X157" s="6" t="s">
         <v>507</v>
@@ -15567,7 +15562,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="n">
         <v>141</v>
       </c>
@@ -15617,7 +15612,7 @@
       </c>
       <c r="T158" s="6"/>
       <c r="U158" s="6"/>
-      <c r="V158" s="16"/>
+      <c r="V158" s="18"/>
       <c r="W158" s="6"/>
       <c r="X158" s="6" t="s">
         <v>507</v>
@@ -15648,7 +15643,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="n">
         <v>142</v>
       </c>
@@ -15725,7 +15720,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="n">
         <v>143</v>
       </c>
@@ -15767,7 +15762,7 @@
       <c r="S160" s="6"/>
       <c r="T160" s="6"/>
       <c r="U160" s="6"/>
-      <c r="V160" s="16"/>
+      <c r="V160" s="18"/>
       <c r="W160" s="6"/>
       <c r="X160" s="6" t="s">
         <v>507</v>
@@ -15800,7 +15795,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="n">
         <v>144</v>
       </c>
@@ -15846,7 +15841,7 @@
       </c>
       <c r="T161" s="6"/>
       <c r="U161" s="6"/>
-      <c r="V161" s="16"/>
+      <c r="V161" s="18"/>
       <c r="W161" s="6"/>
       <c r="X161" s="6" t="s">
         <v>507</v>
@@ -15879,7 +15874,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="n">
         <v>145</v>
       </c>
@@ -15925,7 +15920,7 @@
       </c>
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
-      <c r="V162" s="16"/>
+      <c r="V162" s="18"/>
       <c r="W162" s="6"/>
       <c r="X162" s="6" t="s">
         <v>507</v>
@@ -15958,7 +15953,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="n">
         <v>146</v>
       </c>
@@ -16000,7 +15995,7 @@
       <c r="S163" s="6"/>
       <c r="T163" s="6"/>
       <c r="U163" s="6"/>
-      <c r="V163" s="16"/>
+      <c r="V163" s="18"/>
       <c r="W163" s="6"/>
       <c r="X163" s="6" t="s">
         <v>507</v>
@@ -16039,7 +16034,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="n">
         <v>147</v>
       </c>
@@ -16087,7 +16082,7 @@
       </c>
       <c r="T164" s="6"/>
       <c r="U164" s="6"/>
-      <c r="V164" s="16"/>
+      <c r="V164" s="18"/>
       <c r="W164" s="6"/>
       <c r="X164" s="6" t="s">
         <v>507</v>
@@ -16118,7 +16113,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="n">
         <v>148</v>
       </c>
@@ -16166,7 +16161,7 @@
       </c>
       <c r="T165" s="6"/>
       <c r="U165" s="6"/>
-      <c r="V165" s="16"/>
+      <c r="V165" s="18"/>
       <c r="W165" s="6"/>
       <c r="X165" s="6" t="s">
         <v>507</v>
@@ -16197,7 +16192,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="n">
         <v>149</v>
       </c>
@@ -16245,7 +16240,7 @@
       </c>
       <c r="T166" s="6"/>
       <c r="U166" s="6"/>
-      <c r="V166" s="16"/>
+      <c r="V166" s="18"/>
       <c r="W166" s="6"/>
       <c r="X166" s="6" t="s">
         <v>507</v>
@@ -16276,7 +16271,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="n">
         <v>150</v>
       </c>
@@ -16324,7 +16319,7 @@
       </c>
       <c r="T167" s="6"/>
       <c r="U167" s="6"/>
-      <c r="V167" s="16"/>
+      <c r="V167" s="18"/>
       <c r="W167" s="6"/>
       <c r="X167" s="6" t="s">
         <v>507</v>
@@ -16355,7 +16350,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="n">
         <v>151</v>
       </c>
@@ -16397,7 +16392,7 @@
       <c r="S168" s="6"/>
       <c r="T168" s="6"/>
       <c r="U168" s="6"/>
-      <c r="V168" s="16"/>
+      <c r="V168" s="18"/>
       <c r="W168" s="6"/>
       <c r="X168" s="6" t="s">
         <v>47</v>
@@ -16432,7 +16427,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="n">
         <v>152</v>
       </c>
@@ -16482,7 +16477,7 @@
       </c>
       <c r="T169" s="6"/>
       <c r="U169" s="6"/>
-      <c r="V169" s="16"/>
+      <c r="V169" s="18"/>
       <c r="W169" s="6"/>
       <c r="X169" s="6" t="s">
         <v>47</v>
@@ -16513,7 +16508,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="n">
         <v>153</v>
       </c>
@@ -16590,7 +16585,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="n">
         <v>154</v>
       </c>
@@ -16638,7 +16633,7 @@
       </c>
       <c r="T171" s="6"/>
       <c r="U171" s="6"/>
-      <c r="V171" s="16"/>
+      <c r="V171" s="18"/>
       <c r="W171" s="6"/>
       <c r="X171" s="6" t="s">
         <v>47</v>
@@ -16671,7 +16666,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="n">
         <v>155</v>
       </c>
@@ -16713,14 +16708,12 @@
       <c r="S172" s="6"/>
       <c r="T172" s="6"/>
       <c r="U172" s="6"/>
-      <c r="V172" s="16"/>
+      <c r="V172" s="18"/>
       <c r="W172" s="6"/>
       <c r="X172" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="Y172" s="6" t="s">
-        <v>552</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="Y172" s="6"/>
       <c r="Z172" s="6"/>
       <c r="AA172" s="6"/>
       <c r="AB172" s="6"/>
@@ -16742,13 +16735,13 @@
         <v>155</v>
       </c>
       <c r="AL172" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AM172" s="6" t="n">
         <v>320</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="n">
         <v>156</v>
       </c>
@@ -16765,10 +16758,10 @@
         <v>470</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>91</v>
@@ -16783,31 +16776,29 @@
         <v>478</v>
       </c>
       <c r="N173" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O173" s="9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="P173" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Q173" s="9"/>
       <c r="R173" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S173" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="T173" s="6"/>
       <c r="U173" s="6"/>
-      <c r="V173" s="16"/>
+      <c r="V173" s="18"/>
       <c r="W173" s="6"/>
       <c r="X173" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="Y173" s="6" t="s">
-        <v>552</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="Y173" s="6"/>
       <c r="Z173" s="6"/>
       <c r="AA173" s="6"/>
       <c r="AB173" s="6"/>
@@ -16831,7 +16822,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="n">
         <v>157</v>
       </c>
@@ -16848,10 +16839,10 @@
         <v>470</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>483</v>
@@ -16876,15 +16867,13 @@
       <c r="T174" s="6"/>
       <c r="U174" s="6"/>
       <c r="V174" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="W174" s="6"/>
       <c r="X174" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="Y174" s="6" t="s">
-        <v>552</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="Y174" s="6"/>
       <c r="Z174" s="6"/>
       <c r="AA174" s="6"/>
       <c r="AB174" s="6"/>
@@ -16908,7 +16897,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="6" t="n">
         <v>158</v>
       </c>
@@ -16925,10 +16914,10 @@
         <v>470</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H175" s="6" t="s">
         <v>517</v>
@@ -16950,14 +16939,12 @@
       <c r="S175" s="6"/>
       <c r="T175" s="6"/>
       <c r="U175" s="6"/>
-      <c r="V175" s="16"/>
+      <c r="V175" s="18"/>
       <c r="W175" s="6"/>
       <c r="X175" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="Y175" s="6" t="s">
-        <v>552</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="Y175" s="6"/>
       <c r="Z175" s="6"/>
       <c r="AA175" s="6"/>
       <c r="AB175" s="6"/>
@@ -16977,13 +16964,13 @@
         <v>158</v>
       </c>
       <c r="AL175" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AM175" s="6" t="n">
         <v>155</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="6" t="n">
         <v>159</v>
       </c>
@@ -17000,10 +16987,10 @@
         <v>470</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H176" s="6" t="s">
         <v>488</v>
@@ -17015,7 +17002,7 @@
       <c r="M176" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="N176" s="14" t="s">
+      <c r="N176" s="16" t="s">
         <v>277</v>
       </c>
       <c r="O176" s="9"/>
@@ -17029,14 +17016,12 @@
       </c>
       <c r="T176" s="6"/>
       <c r="U176" s="6"/>
-      <c r="V176" s="16"/>
+      <c r="V176" s="18"/>
       <c r="W176" s="6"/>
       <c r="X176" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="Y176" s="6" t="s">
-        <v>552</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="Y176" s="6"/>
       <c r="Z176" s="6"/>
       <c r="AA176" s="6"/>
       <c r="AB176" s="6"/>
@@ -17048,7 +17033,7 @@
       <c r="AF176" s="6"/>
       <c r="AG176" s="6"/>
       <c r="AH176" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AI176" s="6"/>
       <c r="AJ176" s="6" t="n">
@@ -17062,7 +17047,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="n">
         <v>160</v>
       </c>
@@ -17079,10 +17064,10 @@
         <v>470</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H177" s="6" t="s">
         <v>488</v>
@@ -17092,9 +17077,9 @@
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
       <c r="M177" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="N177" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="N177" s="21" t="s">
         <v>289</v>
       </c>
       <c r="O177" s="9"/>
@@ -17108,14 +17093,12 @@
       </c>
       <c r="T177" s="6"/>
       <c r="U177" s="6"/>
-      <c r="V177" s="16"/>
+      <c r="V177" s="18"/>
       <c r="W177" s="6"/>
       <c r="X177" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="Y177" s="6" t="s">
-        <v>552</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="Y177" s="6"/>
       <c r="Z177" s="6"/>
       <c r="AA177" s="6"/>
       <c r="AB177" s="6"/>
@@ -17127,7 +17110,7 @@
       <c r="AF177" s="6"/>
       <c r="AG177" s="6"/>
       <c r="AH177" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AI177" s="6"/>
       <c r="AJ177" s="6" t="n">
@@ -17141,7 +17124,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="n">
         <v>161</v>
       </c>
@@ -17158,10 +17141,10 @@
         <v>470</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H178" s="6" t="s">
         <v>488</v>
@@ -17173,7 +17156,7 @@
       <c r="M178" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N178" s="19" t="s">
+      <c r="N178" s="21" t="s">
         <v>219</v>
       </c>
       <c r="O178" s="9"/>
@@ -17187,14 +17170,12 @@
       </c>
       <c r="T178" s="6"/>
       <c r="U178" s="6"/>
-      <c r="V178" s="16"/>
+      <c r="V178" s="18"/>
       <c r="W178" s="6"/>
       <c r="X178" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="Y178" s="6" t="s">
-        <v>552</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="Y178" s="6"/>
       <c r="Z178" s="6"/>
       <c r="AA178" s="6"/>
       <c r="AB178" s="6"/>
@@ -17206,7 +17187,7 @@
       <c r="AF178" s="6"/>
       <c r="AG178" s="6"/>
       <c r="AH178" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AI178" s="6"/>
       <c r="AJ178" s="6" t="n">
@@ -17220,7 +17201,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="n">
         <v>162</v>
       </c>
@@ -17237,10 +17218,10 @@
         <v>470</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H179" s="6" t="s">
         <v>473</v>
@@ -17262,7 +17243,7 @@
       <c r="S179" s="6"/>
       <c r="T179" s="6"/>
       <c r="U179" s="6"/>
-      <c r="V179" s="16"/>
+      <c r="V179" s="18"/>
       <c r="W179" s="6"/>
       <c r="X179" s="6" t="s">
         <v>47</v>
@@ -17291,13 +17272,13 @@
         <v>162</v>
       </c>
       <c r="AL179" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AM179" s="6" t="n">
         <v>302</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="n">
         <v>163</v>
       </c>
@@ -17314,10 +17295,10 @@
         <v>470</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H180" s="6" t="s">
         <v>91</v>
@@ -17347,7 +17328,7 @@
       </c>
       <c r="T180" s="6"/>
       <c r="U180" s="6"/>
-      <c r="V180" s="16"/>
+      <c r="V180" s="18"/>
       <c r="W180" s="6"/>
       <c r="X180" s="6" t="s">
         <v>47</v>
@@ -17378,7 +17359,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="n">
         <v>164</v>
       </c>
@@ -17395,10 +17376,10 @@
         <v>470</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H181" s="6" t="s">
         <v>483</v>
@@ -17423,7 +17404,7 @@
       <c r="T181" s="6"/>
       <c r="U181" s="6"/>
       <c r="V181" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="W181" s="6"/>
       <c r="X181" s="6" t="s">
@@ -17455,7 +17436,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="n">
         <v>165</v>
       </c>
@@ -17472,10 +17453,10 @@
         <v>470</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H182" s="6" t="s">
         <v>517</v>
@@ -17497,7 +17478,7 @@
       <c r="S182" s="6"/>
       <c r="T182" s="6"/>
       <c r="U182" s="6"/>
-      <c r="V182" s="16"/>
+      <c r="V182" s="18"/>
       <c r="W182" s="6"/>
       <c r="X182" s="6" t="s">
         <v>47</v>
@@ -17530,7 +17511,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="n">
         <v>166</v>
       </c>
@@ -17547,7 +17528,7 @@
         <v>470</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G183" s="9" t="s">
         <v>147</v>
@@ -17578,7 +17559,7 @@
       </c>
       <c r="T183" s="6"/>
       <c r="U183" s="6"/>
-      <c r="V183" s="16"/>
+      <c r="V183" s="18"/>
       <c r="W183" s="6"/>
       <c r="X183" s="6" t="s">
         <v>47</v>
@@ -17597,7 +17578,7 @@
       <c r="AF183" s="6"/>
       <c r="AG183" s="6"/>
       <c r="AH183" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AI183" s="6"/>
       <c r="AJ183" s="6" t="n">
@@ -17611,7 +17592,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="n">
         <v>167</v>
       </c>
@@ -17628,10 +17609,10 @@
         <v>470</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H184" s="6" t="s">
         <v>473</v>
@@ -17653,14 +17634,14 @@
       <c r="S184" s="6"/>
       <c r="T184" s="6"/>
       <c r="U184" s="6"/>
-      <c r="V184" s="16"/>
+      <c r="V184" s="18"/>
       <c r="W184" s="6"/>
       <c r="X184" s="6" t="s">
         <v>507</v>
       </c>
       <c r="Y184" s="6"/>
       <c r="Z184" s="6"/>
-      <c r="AA184" s="20" t="n">
+      <c r="AA184" s="22" t="n">
         <v>1102</v>
       </c>
       <c r="AB184" s="6"/>
@@ -17682,13 +17663,13 @@
         <v>167</v>
       </c>
       <c r="AL184" s="11" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AM184" s="6" t="n">
         <v>303</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="n">
         <v>168</v>
       </c>
@@ -17705,10 +17686,10 @@
         <v>470</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H185" s="6" t="s">
         <v>91</v>
@@ -17738,14 +17719,14 @@
       </c>
       <c r="T185" s="6"/>
       <c r="U185" s="6"/>
-      <c r="V185" s="16"/>
+      <c r="V185" s="18"/>
       <c r="W185" s="6"/>
       <c r="X185" s="6" t="s">
         <v>507</v>
       </c>
       <c r="Y185" s="6"/>
       <c r="Z185" s="6"/>
-      <c r="AA185" s="20" t="n">
+      <c r="AA185" s="22" t="n">
         <v>1102</v>
       </c>
       <c r="AB185" s="6"/>
@@ -17769,7 +17750,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="n">
         <v>169</v>
       </c>
@@ -17786,10 +17767,10 @@
         <v>470</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H186" s="6" t="s">
         <v>483</v>
@@ -17814,7 +17795,7 @@
       <c r="T186" s="6"/>
       <c r="U186" s="6"/>
       <c r="V186" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="W186" s="6"/>
       <c r="X186" s="6" t="s">
@@ -17822,7 +17803,7 @@
       </c>
       <c r="Y186" s="6"/>
       <c r="Z186" s="6"/>
-      <c r="AA186" s="20" t="n">
+      <c r="AA186" s="22" t="n">
         <v>1102</v>
       </c>
       <c r="AB186" s="6"/>
@@ -17846,7 +17827,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="n">
         <v>170</v>
       </c>
@@ -17863,10 +17844,10 @@
         <v>470</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H187" s="6" t="s">
         <v>91</v>
@@ -17894,14 +17875,14 @@
       </c>
       <c r="T187" s="6"/>
       <c r="U187" s="6"/>
-      <c r="V187" s="16"/>
+      <c r="V187" s="18"/>
       <c r="W187" s="6"/>
       <c r="X187" s="6" t="s">
         <v>507</v>
       </c>
       <c r="Y187" s="6"/>
       <c r="Z187" s="6"/>
-      <c r="AA187" s="20" t="n">
+      <c r="AA187" s="22" t="n">
         <v>1102</v>
       </c>
       <c r="AB187" s="6"/>
@@ -17913,7 +17894,7 @@
       <c r="AF187" s="6"/>
       <c r="AG187" s="6"/>
       <c r="AH187" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AI187" s="6"/>
       <c r="AJ187" s="6" t="n">
@@ -17927,7 +17908,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="n">
         <v>171</v>
       </c>
@@ -17944,10 +17925,10 @@
         <v>470</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H188" s="6" t="s">
         <v>473</v>
@@ -17969,7 +17950,7 @@
       <c r="S188" s="6"/>
       <c r="T188" s="6"/>
       <c r="U188" s="6"/>
-      <c r="V188" s="16"/>
+      <c r="V188" s="18"/>
       <c r="W188" s="6"/>
       <c r="X188" s="6" t="s">
         <v>81</v>
@@ -17996,13 +17977,13 @@
         <v>171</v>
       </c>
       <c r="AL188" s="11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AM188" s="6" t="n">
         <v>321</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="n">
         <v>172</v>
       </c>
@@ -18019,10 +18000,10 @@
         <v>470</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H189" s="6" t="s">
         <v>91</v>
@@ -18037,10 +18018,10 @@
         <v>478</v>
       </c>
       <c r="N189" s="9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="O189" s="9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="P189" s="9"/>
       <c r="Q189" s="9"/>
@@ -18052,7 +18033,7 @@
       </c>
       <c r="T189" s="6"/>
       <c r="U189" s="6"/>
-      <c r="V189" s="16"/>
+      <c r="V189" s="18"/>
       <c r="W189" s="6"/>
       <c r="X189" s="6" t="s">
         <v>81</v>
@@ -18081,7 +18062,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="n">
         <v>173</v>
       </c>
@@ -18098,10 +18079,10 @@
         <v>470</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H190" s="6" t="s">
         <v>483</v>
@@ -18126,7 +18107,7 @@
       <c r="T190" s="6"/>
       <c r="U190" s="6"/>
       <c r="V190" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="W190" s="6"/>
       <c r="X190" s="6" t="s">
@@ -18156,7 +18137,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="n">
         <v>174</v>
       </c>
@@ -18173,10 +18154,10 @@
         <v>470</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H191" s="6" t="s">
         <v>517</v>
@@ -18198,7 +18179,7 @@
       <c r="S191" s="6"/>
       <c r="T191" s="6"/>
       <c r="U191" s="6"/>
-      <c r="V191" s="16"/>
+      <c r="V191" s="18"/>
       <c r="W191" s="6"/>
       <c r="X191" s="6" t="s">
         <v>81</v>
@@ -18223,13 +18204,13 @@
         <v>174</v>
       </c>
       <c r="AL191" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AM191" s="6" t="n">
         <v>171</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="n">
         <v>175</v>
       </c>
@@ -18246,10 +18227,10 @@
         <v>470</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H192" s="6" t="s">
         <v>488</v>
@@ -18275,7 +18256,7 @@
       </c>
       <c r="T192" s="6"/>
       <c r="U192" s="6"/>
-      <c r="V192" s="16"/>
+      <c r="V192" s="18"/>
       <c r="W192" s="6"/>
       <c r="X192" s="6" t="s">
         <v>81</v>
@@ -18292,7 +18273,7 @@
       <c r="AF192" s="6"/>
       <c r="AG192" s="6"/>
       <c r="AH192" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AI192" s="6"/>
       <c r="AJ192" s="6" t="n">
@@ -18306,7 +18287,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="n">
         <v>176</v>
       </c>
@@ -18323,10 +18304,10 @@
         <v>470</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H193" s="6" t="s">
         <v>488</v>
@@ -18352,7 +18333,7 @@
       </c>
       <c r="T193" s="6"/>
       <c r="U193" s="6"/>
-      <c r="V193" s="16"/>
+      <c r="V193" s="18"/>
       <c r="W193" s="6"/>
       <c r="X193" s="6" t="s">
         <v>81</v>
@@ -18369,7 +18350,7 @@
       <c r="AF193" s="6"/>
       <c r="AG193" s="6"/>
       <c r="AH193" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AI193" s="6"/>
       <c r="AJ193" s="6" t="n">
@@ -18383,7 +18364,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="n">
         <v>177</v>
       </c>
@@ -18400,10 +18381,10 @@
         <v>470</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H194" s="6" t="s">
         <v>488</v>
@@ -18429,7 +18410,7 @@
       </c>
       <c r="T194" s="6"/>
       <c r="U194" s="6"/>
-      <c r="V194" s="16"/>
+      <c r="V194" s="18"/>
       <c r="W194" s="6"/>
       <c r="X194" s="6" t="s">
         <v>81</v>
@@ -18446,7 +18427,7 @@
       <c r="AF194" s="6"/>
       <c r="AG194" s="6"/>
       <c r="AH194" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AI194" s="6"/>
       <c r="AJ194" s="6" t="n">
@@ -18460,7 +18441,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="n">
         <v>178</v>
       </c>
@@ -18477,10 +18458,10 @@
         <v>470</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H195" s="6" t="s">
         <v>488</v>
@@ -18506,7 +18487,7 @@
       </c>
       <c r="T195" s="6"/>
       <c r="U195" s="6"/>
-      <c r="V195" s="16"/>
+      <c r="V195" s="18"/>
       <c r="W195" s="6"/>
       <c r="X195" s="6" t="s">
         <v>81</v>
@@ -18523,7 +18504,7 @@
       <c r="AF195" s="6"/>
       <c r="AG195" s="6"/>
       <c r="AH195" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AI195" s="6"/>
       <c r="AJ195" s="6" t="n">
@@ -18537,7 +18518,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="n">
         <v>179</v>
       </c>
@@ -18551,16 +18532,16 @@
         <v>490</v>
       </c>
       <c r="E196" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="G196" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="F196" s="6" t="s">
+      <c r="H196" s="6" t="s">
         <v>619</v>
-      </c>
-      <c r="G196" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="H196" s="6" t="s">
-        <v>621</v>
       </c>
       <c r="I196" s="6"/>
       <c r="J196" s="7" t="n">
@@ -18588,15 +18569,15 @@
       <c r="V196" s="6"/>
       <c r="W196" s="6"/>
       <c r="X196" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y196" s="6"/>
       <c r="Z196" s="6"/>
-      <c r="AA196" s="15"/>
+      <c r="AA196" s="17"/>
       <c r="AB196" s="6"/>
       <c r="AC196" s="6"/>
       <c r="AD196" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AE196" s="8" t="n">
         <v>0.0725</v>
@@ -18616,7 +18597,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="n">
         <v>180</v>
       </c>
@@ -18633,13 +18614,13 @@
         <v>495</v>
       </c>
       <c r="F197" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="G197" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="H197" s="6" t="s">
         <v>624</v>
-      </c>
-      <c r="G197" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="H197" s="6" t="s">
-        <v>626</v>
       </c>
       <c r="I197" s="6"/>
       <c r="J197" s="6" t="n">
@@ -18661,14 +18642,14 @@
       <c r="V197" s="6"/>
       <c r="W197" s="6"/>
       <c r="X197" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y197" s="6"/>
       <c r="Z197" s="6"/>
-      <c r="AA197" s="15"/>
+      <c r="AA197" s="17"/>
       <c r="AB197" s="6"/>
       <c r="AC197" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AD197" s="6" t="s">
         <v>97</v>
@@ -18687,13 +18668,13 @@
         <v>180</v>
       </c>
       <c r="AL197" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="AM197" s="18" t="n">
+        <v>626</v>
+      </c>
+      <c r="AM197" s="20" t="n">
         <v>501</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="n">
         <v>181</v>
       </c>
@@ -18710,10 +18691,10 @@
         <v>495</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H198" s="6" t="s">
         <v>91</v>
@@ -18744,14 +18725,14 @@
       <c r="V198" s="6"/>
       <c r="W198" s="6"/>
       <c r="X198" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y198" s="6"/>
       <c r="Z198" s="6"/>
-      <c r="AA198" s="15"/>
+      <c r="AA198" s="17"/>
       <c r="AB198" s="6"/>
       <c r="AC198" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AD198" s="6" t="s">
         <v>97</v>
@@ -18772,7 +18753,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="n">
         <v>182</v>
       </c>
@@ -18789,10 +18770,10 @@
         <v>495</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H199" s="6" t="s">
         <v>91</v>
@@ -18804,7 +18785,7 @@
       <c r="K199" s="6"/>
       <c r="L199" s="6"/>
       <c r="M199" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="N199" s="9" t="s">
         <v>103</v>
@@ -18823,14 +18804,14 @@
       <c r="V199" s="6"/>
       <c r="W199" s="6"/>
       <c r="X199" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y199" s="6"/>
       <c r="Z199" s="6"/>
-      <c r="AA199" s="15"/>
+      <c r="AA199" s="17"/>
       <c r="AB199" s="6"/>
       <c r="AC199" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AD199" s="6" t="s">
         <v>97</v>
@@ -18851,7 +18832,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="n">
         <v>183</v>
       </c>
@@ -18868,10 +18849,10 @@
         <v>495</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H200" s="6" t="s">
         <v>91</v>
@@ -18902,14 +18883,14 @@
       <c r="V200" s="6"/>
       <c r="W200" s="6"/>
       <c r="X200" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y200" s="6"/>
       <c r="Z200" s="6"/>
-      <c r="AA200" s="15"/>
+      <c r="AA200" s="17"/>
       <c r="AB200" s="6"/>
       <c r="AC200" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AD200" s="6" t="s">
         <v>97</v>
@@ -18930,7 +18911,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="n">
         <v>184</v>
       </c>
@@ -18947,10 +18928,10 @@
         <v>495</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H201" s="6" t="s">
         <v>91</v>
@@ -18981,14 +18962,14 @@
       <c r="V201" s="6"/>
       <c r="W201" s="6"/>
       <c r="X201" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y201" s="6"/>
       <c r="Z201" s="6"/>
-      <c r="AA201" s="15"/>
+      <c r="AA201" s="17"/>
       <c r="AB201" s="6"/>
       <c r="AC201" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AD201" s="6" t="s">
         <v>97</v>
@@ -19009,7 +18990,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="n">
         <v>185</v>
       </c>
@@ -19026,10 +19007,10 @@
         <v>495</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H202" s="6" t="s">
         <v>91</v>
@@ -19060,14 +19041,14 @@
       <c r="V202" s="6"/>
       <c r="W202" s="6"/>
       <c r="X202" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y202" s="6"/>
       <c r="Z202" s="6"/>
-      <c r="AA202" s="15"/>
+      <c r="AA202" s="17"/>
       <c r="AB202" s="6"/>
       <c r="AC202" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AD202" s="6" t="s">
         <v>97</v>
@@ -19088,7 +19069,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="n">
         <v>186</v>
       </c>
@@ -19105,10 +19086,10 @@
         <v>495</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H203" s="6" t="s">
         <v>91</v>
@@ -19120,7 +19101,7 @@
       <c r="K203" s="6"/>
       <c r="L203" s="6"/>
       <c r="M203" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="N203" s="9" t="s">
         <v>181</v>
@@ -19139,14 +19120,14 @@
       <c r="V203" s="6"/>
       <c r="W203" s="6"/>
       <c r="X203" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y203" s="6"/>
       <c r="Z203" s="6"/>
-      <c r="AA203" s="15"/>
+      <c r="AA203" s="17"/>
       <c r="AB203" s="6"/>
       <c r="AC203" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AD203" s="6" t="s">
         <v>97</v>
@@ -19167,7 +19148,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="n">
         <v>187</v>
       </c>
@@ -19184,10 +19165,10 @@
         <v>495</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H204" s="6" t="s">
         <v>91</v>
@@ -19218,14 +19199,14 @@
       <c r="V204" s="6"/>
       <c r="W204" s="6"/>
       <c r="X204" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y204" s="6"/>
       <c r="Z204" s="6"/>
-      <c r="AA204" s="15"/>
+      <c r="AA204" s="17"/>
       <c r="AB204" s="6"/>
       <c r="AC204" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AD204" s="6" t="s">
         <v>97</v>
@@ -19246,7 +19227,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="n">
         <v>188</v>
       </c>
@@ -19263,10 +19244,10 @@
         <v>495</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H205" s="6" t="s">
         <v>91</v>
@@ -19297,14 +19278,14 @@
       <c r="V205" s="6"/>
       <c r="W205" s="6"/>
       <c r="X205" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y205" s="6"/>
       <c r="Z205" s="6"/>
-      <c r="AA205" s="15"/>
+      <c r="AA205" s="17"/>
       <c r="AB205" s="6"/>
       <c r="AC205" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AD205" s="6" t="s">
         <v>97</v>
@@ -19325,7 +19306,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="n">
         <v>189</v>
       </c>
@@ -19339,16 +19320,16 @@
         <v>41</v>
       </c>
       <c r="E206" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="G206" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="F206" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="G206" s="6" t="s">
-        <v>649</v>
-      </c>
       <c r="H206" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I206" s="6"/>
       <c r="J206" s="7" t="n">
@@ -19376,15 +19357,15 @@
       <c r="V206" s="6"/>
       <c r="W206" s="6"/>
       <c r="X206" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y206" s="6"/>
       <c r="Z206" s="6"/>
-      <c r="AA206" s="15"/>
+      <c r="AA206" s="17"/>
       <c r="AB206" s="6"/>
       <c r="AC206" s="6"/>
       <c r="AD206" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AE206" s="8" t="n">
         <v>0.0625</v>
@@ -19404,7 +19385,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="n">
         <v>190</v>
       </c>
@@ -19421,13 +19402,13 @@
         <v>495</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I207" s="6"/>
       <c r="J207" s="6" t="n">
@@ -19449,14 +19430,14 @@
       <c r="V207" s="6"/>
       <c r="W207" s="6"/>
       <c r="X207" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y207" s="6"/>
       <c r="Z207" s="6"/>
-      <c r="AA207" s="15"/>
+      <c r="AA207" s="17"/>
       <c r="AB207" s="6"/>
       <c r="AC207" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AD207" s="6" t="s">
         <v>97</v>
@@ -19475,13 +19456,13 @@
         <v>190</v>
       </c>
       <c r="AL207" s="11" t="s">
-        <v>652</v>
-      </c>
-      <c r="AM207" s="18" t="n">
+        <v>650</v>
+      </c>
+      <c r="AM207" s="20" t="n">
         <v>502</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="n">
         <v>191</v>
       </c>
@@ -19498,10 +19479,10 @@
         <v>495</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H208" s="6" t="s">
         <v>91</v>
@@ -19532,14 +19513,14 @@
       <c r="V208" s="6"/>
       <c r="W208" s="6"/>
       <c r="X208" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y208" s="6"/>
       <c r="Z208" s="6"/>
-      <c r="AA208" s="15"/>
+      <c r="AA208" s="17"/>
       <c r="AB208" s="6"/>
       <c r="AC208" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AD208" s="6" t="s">
         <v>97</v>
@@ -19560,7 +19541,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="n">
         <v>192</v>
       </c>
@@ -19577,10 +19558,10 @@
         <v>495</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H209" s="6" t="s">
         <v>91</v>
@@ -19611,14 +19592,14 @@
       <c r="V209" s="6"/>
       <c r="W209" s="6"/>
       <c r="X209" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y209" s="6"/>
       <c r="Z209" s="6"/>
-      <c r="AA209" s="15"/>
+      <c r="AA209" s="17"/>
       <c r="AB209" s="6"/>
       <c r="AC209" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AD209" s="6" t="s">
         <v>97</v>
@@ -19639,7 +19620,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="n">
         <v>193</v>
       </c>
@@ -19656,10 +19637,10 @@
         <v>495</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H210" s="6" t="s">
         <v>91</v>
@@ -19690,14 +19671,14 @@
       <c r="V210" s="6"/>
       <c r="W210" s="6"/>
       <c r="X210" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y210" s="6"/>
       <c r="Z210" s="6"/>
-      <c r="AA210" s="15"/>
+      <c r="AA210" s="17"/>
       <c r="AB210" s="6"/>
       <c r="AC210" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AD210" s="6" t="s">
         <v>97</v>
@@ -19718,7 +19699,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="n">
         <v>194</v>
       </c>
@@ -19735,10 +19716,10 @@
         <v>495</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H211" s="6" t="s">
         <v>91</v>
@@ -19769,14 +19750,14 @@
       <c r="V211" s="6"/>
       <c r="W211" s="6"/>
       <c r="X211" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y211" s="6"/>
       <c r="Z211" s="6"/>
-      <c r="AA211" s="15"/>
+      <c r="AA211" s="17"/>
       <c r="AB211" s="6"/>
       <c r="AC211" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AD211" s="6" t="s">
         <v>97</v>
@@ -19797,7 +19778,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="6" t="n">
         <v>195</v>
       </c>
@@ -19814,10 +19795,10 @@
         <v>495</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H212" s="6" t="s">
         <v>91</v>
@@ -19848,14 +19829,14 @@
       <c r="V212" s="6"/>
       <c r="W212" s="6"/>
       <c r="X212" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y212" s="6"/>
       <c r="Z212" s="6"/>
-      <c r="AA212" s="15"/>
+      <c r="AA212" s="17"/>
       <c r="AB212" s="6"/>
       <c r="AC212" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AD212" s="6" t="s">
         <v>97</v>
@@ -19876,7 +19857,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="n">
         <v>196</v>
       </c>
@@ -19890,16 +19871,16 @@
         <v>41</v>
       </c>
       <c r="E213" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="G213" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="F213" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="G213" s="6" t="s">
-        <v>665</v>
-      </c>
       <c r="H213" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I213" s="6"/>
       <c r="J213" s="7" t="n">
@@ -19911,10 +19892,10 @@
         <v>478</v>
       </c>
       <c r="N213" s="9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="O213" s="9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="P213" s="9"/>
       <c r="Q213" s="6"/>
@@ -19927,15 +19908,15 @@
       <c r="V213" s="6"/>
       <c r="W213" s="6"/>
       <c r="X213" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y213" s="6"/>
       <c r="Z213" s="6"/>
-      <c r="AA213" s="15"/>
+      <c r="AA213" s="17"/>
       <c r="AB213" s="6"/>
       <c r="AC213" s="6"/>
       <c r="AD213" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AE213" s="8" t="n">
         <v>0.0225</v>
@@ -19955,7 +19936,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="n">
         <v>197</v>
       </c>
@@ -19972,13 +19953,13 @@
         <v>495</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H214" s="6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I214" s="6"/>
       <c r="J214" s="6" t="n">
@@ -20000,14 +19981,14 @@
       <c r="V214" s="6"/>
       <c r="W214" s="6"/>
       <c r="X214" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y214" s="6"/>
       <c r="Z214" s="6"/>
-      <c r="AA214" s="15"/>
+      <c r="AA214" s="17"/>
       <c r="AB214" s="6"/>
       <c r="AC214" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AD214" s="6" t="s">
         <v>97</v>
@@ -20025,14 +20006,14 @@
       <c r="AK214" s="6" t="n">
         <v>197</v>
       </c>
-      <c r="AL214" s="15" t="s">
-        <v>669</v>
-      </c>
-      <c r="AM214" s="18" t="n">
+      <c r="AL214" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="AM214" s="20" t="n">
         <v>503</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="n">
         <v>198</v>
       </c>
@@ -20049,7 +20030,7 @@
         <v>495</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G215" s="6" t="s">
         <v>218</v>
@@ -20083,14 +20064,14 @@
       <c r="V215" s="6"/>
       <c r="W215" s="6"/>
       <c r="X215" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y215" s="6"/>
       <c r="Z215" s="6"/>
-      <c r="AA215" s="15"/>
+      <c r="AA215" s="17"/>
       <c r="AB215" s="6"/>
       <c r="AC215" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AD215" s="6" t="s">
         <v>97</v>
@@ -20111,7 +20092,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="n">
         <v>199</v>
       </c>
@@ -20125,16 +20106,16 @@
         <v>41</v>
       </c>
       <c r="E216" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="G216" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="F216" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="G216" s="6" t="s">
-        <v>673</v>
-      </c>
       <c r="H216" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I216" s="6"/>
       <c r="J216" s="7" t="n">
@@ -20146,10 +20127,10 @@
         <v>478</v>
       </c>
       <c r="N216" s="9" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="O216" s="9" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="P216" s="9"/>
       <c r="Q216" s="6"/>
@@ -20162,15 +20143,15 @@
       <c r="V216" s="6"/>
       <c r="W216" s="6"/>
       <c r="X216" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y216" s="6"/>
       <c r="Z216" s="6"/>
-      <c r="AA216" s="15"/>
+      <c r="AA216" s="17"/>
       <c r="AB216" s="6"/>
       <c r="AC216" s="6"/>
       <c r="AD216" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AE216" s="8" t="n">
         <v>0.0425</v>
@@ -20190,7 +20171,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="n">
         <v>200</v>
       </c>
@@ -20207,13 +20188,13 @@
         <v>495</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H217" s="6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I217" s="6"/>
       <c r="J217" s="6" t="n">
@@ -20235,14 +20216,14 @@
       <c r="V217" s="6"/>
       <c r="W217" s="6"/>
       <c r="X217" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y217" s="6"/>
       <c r="Z217" s="6"/>
-      <c r="AA217" s="15"/>
+      <c r="AA217" s="17"/>
       <c r="AB217" s="6"/>
       <c r="AC217" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AD217" s="6" t="s">
         <v>97</v>
@@ -20261,13 +20242,13 @@
         <v>200</v>
       </c>
       <c r="AL217" s="11" t="s">
-        <v>677</v>
-      </c>
-      <c r="AM217" s="18" t="n">
+        <v>675</v>
+      </c>
+      <c r="AM217" s="20" t="n">
         <v>504</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="n">
         <v>201</v>
       </c>
@@ -20284,10 +20265,10 @@
         <v>495</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H218" s="6" t="s">
         <v>91</v>
@@ -20318,14 +20299,14 @@
       <c r="V218" s="6"/>
       <c r="W218" s="6"/>
       <c r="X218" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y218" s="6"/>
       <c r="Z218" s="6"/>
-      <c r="AA218" s="15"/>
+      <c r="AA218" s="17"/>
       <c r="AB218" s="6"/>
       <c r="AC218" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AD218" s="6" t="s">
         <v>97</v>
@@ -20346,7 +20327,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="n">
         <v>202</v>
       </c>
@@ -20363,10 +20344,10 @@
         <v>495</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H219" s="6" t="s">
         <v>91</v>
@@ -20377,10 +20358,10 @@
       </c>
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
-      <c r="M219" s="18" t="s">
+      <c r="M219" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="N219" s="14" t="s">
+      <c r="N219" s="16" t="s">
         <v>277</v>
       </c>
       <c r="O219" s="9"/>
@@ -20397,14 +20378,14 @@
       <c r="V219" s="6"/>
       <c r="W219" s="6"/>
       <c r="X219" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y219" s="6"/>
       <c r="Z219" s="6"/>
-      <c r="AA219" s="15"/>
+      <c r="AA219" s="17"/>
       <c r="AB219" s="6"/>
       <c r="AC219" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AD219" s="6" t="s">
         <v>97</v>
@@ -20425,7 +20406,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="n">
         <v>203</v>
       </c>
@@ -20439,16 +20420,16 @@
         <v>41</v>
       </c>
       <c r="E220" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="G220" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="F220" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="G220" s="6" t="s">
-        <v>684</v>
-      </c>
       <c r="H220" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I220" s="6"/>
       <c r="J220" s="7" t="n">
@@ -20460,10 +20441,10 @@
         <v>478</v>
       </c>
       <c r="N220" s="9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="O220" s="9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="P220" s="9"/>
       <c r="Q220" s="6"/>
@@ -20476,15 +20457,15 @@
       <c r="V220" s="6"/>
       <c r="W220" s="6"/>
       <c r="X220" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Y220" s="6"/>
       <c r="Z220" s="6"/>
-      <c r="AA220" s="15"/>
+      <c r="AA220" s="17"/>
       <c r="AB220" s="6"/>
       <c r="AC220" s="6"/>
       <c r="AD220" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AE220" s="8" t="n">
         <v>0.04</v>
@@ -20504,7 +20485,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="n">
         <v>204</v>
       </c>
@@ -20518,16 +20499,16 @@
         <v>41</v>
       </c>
       <c r="E221" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="G221" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="F221" s="6" t="s">
+      <c r="H221" s="6" t="s">
         <v>686</v>
-      </c>
-      <c r="G221" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="H221" s="6" t="s">
-        <v>688</v>
       </c>
       <c r="I221" s="6"/>
       <c r="J221" s="6"/>
@@ -20539,7 +20520,7 @@
       <c r="P221" s="9"/>
       <c r="Q221" s="9"/>
       <c r="R221" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="S221" s="6"/>
       <c r="T221" s="6"/>
@@ -20547,7 +20528,7 @@
       <c r="V221" s="6"/>
       <c r="W221" s="6"/>
       <c r="X221" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Y221" s="6"/>
       <c r="Z221" s="6"/>
@@ -20555,7 +20536,7 @@
       <c r="AB221" s="6"/>
       <c r="AC221" s="6"/>
       <c r="AD221" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AE221" s="8" t="n">
         <v>0.065</v>
@@ -20563,7 +20544,7 @@
       <c r="AF221" s="6"/>
       <c r="AG221" s="6"/>
       <c r="AH221" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AI221" s="6"/>
       <c r="AJ221" s="6" t="n">
@@ -20573,13 +20554,13 @@
         <v>204</v>
       </c>
       <c r="AL221" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AM221" s="6" t="n">
         <v>311</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="n">
         <v>205</v>
       </c>
@@ -20593,16 +20574,16 @@
         <v>41</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F222" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="G222" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="H222" s="6" t="s">
         <v>693</v>
-      </c>
-      <c r="G222" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="H222" s="6" t="s">
-        <v>695</v>
       </c>
       <c r="I222" s="6"/>
       <c r="J222" s="6" t="n">
@@ -20616,21 +20597,21 @@
         <v>478</v>
       </c>
       <c r="N222" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O222" s="9"/>
       <c r="P222" s="9"/>
       <c r="Q222" s="9"/>
       <c r="R222" s="6"/>
       <c r="S222" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="T222" s="6"/>
       <c r="U222" s="6"/>
       <c r="V222" s="6"/>
       <c r="W222" s="6"/>
       <c r="X222" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Y222" s="6"/>
       <c r="Z222" s="6"/>
@@ -20656,7 +20637,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="n">
         <v>206</v>
       </c>
@@ -20670,16 +20651,16 @@
         <v>41</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F223" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="G223" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="H223" s="6" t="s">
         <v>696</v>
-      </c>
-      <c r="G223" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="H223" s="6" t="s">
-        <v>698</v>
       </c>
       <c r="I223" s="6"/>
       <c r="J223" s="6" t="n">
@@ -20691,21 +20672,21 @@
         <v>478</v>
       </c>
       <c r="N223" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O223" s="9"/>
       <c r="P223" s="9"/>
       <c r="Q223" s="9"/>
       <c r="R223" s="6"/>
       <c r="S223" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="T223" s="6"/>
       <c r="U223" s="6"/>
       <c r="V223" s="6"/>
       <c r="W223" s="6"/>
-      <c r="X223" s="21" t="s">
-        <v>699</v>
+      <c r="X223" s="14" t="s">
+        <v>697</v>
       </c>
       <c r="Y223" s="6"/>
       <c r="Z223" s="6"/>
@@ -20731,7 +20712,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="n">
         <v>207</v>
       </c>
@@ -20748,10 +20729,10 @@
         <v>495</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H224" s="6" t="s">
         <v>483</v>
@@ -20769,16 +20750,16 @@
       <c r="Q224" s="9"/>
       <c r="R224" s="6"/>
       <c r="S224" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="T224" s="6"/>
       <c r="U224" s="6"/>
       <c r="V224" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="W224" s="6"/>
       <c r="X224" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Y224" s="6"/>
       <c r="Z224" s="6"/>
@@ -20794,10 +20775,10 @@
       <c r="AF224" s="6"/>
       <c r="AG224" s="6"/>
       <c r="AH224" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AI224" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AJ224" s="6" t="n">
         <v>2</v>
@@ -20806,11 +20787,11 @@
         <v>207</v>
       </c>
       <c r="AL224" s="6"/>
-      <c r="AM224" s="22" t="n">
+      <c r="AM224" s="23" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="n">
         <v>208</v>
       </c>
@@ -20827,17 +20808,15 @@
         <v>495</v>
       </c>
       <c r="F225" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="G225" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="H225" s="24" t="s">
         <v>705</v>
       </c>
-      <c r="G225" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="H225" s="23" t="s">
-        <v>707</v>
-      </c>
-      <c r="I225" s="23" t="s">
-        <v>708</v>
-      </c>
+      <c r="I225" s="6"/>
       <c r="J225" s="6" t="n">
         <v>15</v>
       </c>
@@ -20850,18 +20829,22 @@
       <c r="M225" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="N225" s="9"/>
+      <c r="N225" s="9" t="s">
+        <v>554</v>
+      </c>
       <c r="O225" s="9"/>
       <c r="P225" s="9"/>
       <c r="Q225" s="9"/>
       <c r="R225" s="6"/>
-      <c r="S225" s="6"/>
+      <c r="S225" s="6" t="s">
+        <v>556</v>
+      </c>
       <c r="T225" s="6"/>
       <c r="U225" s="6"/>
       <c r="V225" s="6"/>
       <c r="W225" s="6"/>
       <c r="X225" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Y225" s="6"/>
       <c r="Z225" s="6"/>
@@ -20877,10 +20860,10 @@
       <c r="AF225" s="6"/>
       <c r="AG225" s="6"/>
       <c r="AH225" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AI225" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AJ225" s="6" t="n">
         <v>2</v>
@@ -20889,11 +20872,11 @@
         <v>208</v>
       </c>
       <c r="AL225" s="6"/>
-      <c r="AM225" s="22" t="n">
+      <c r="AM225" s="23" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="n">
         <v>209</v>
       </c>
@@ -20909,11 +20892,11 @@
       <c r="E226" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="F226" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="G226" s="6" t="s">
-        <v>710</v>
+      <c r="F226" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="G226" s="14" t="s">
+        <v>707</v>
       </c>
       <c r="H226" s="6" t="s">
         <v>86</v>
@@ -20936,7 +20919,7 @@
       <c r="V226" s="6"/>
       <c r="W226" s="6"/>
       <c r="X226" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Y226" s="6"/>
       <c r="Z226" s="6"/>
@@ -20944,22 +20927,22 @@
       <c r="AB226" s="6"/>
       <c r="AC226" s="6"/>
       <c r="AD226" s="6" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="AE226" s="8" t="n">
         <v>0.01625</v>
       </c>
-      <c r="AF226" s="19" t="n">
+      <c r="AF226" s="21" t="n">
         <v>0.5</v>
       </c>
       <c r="AG226" s="6" t="n">
         <v>1</v>
       </c>
       <c r="AH226" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AI226" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AJ226" s="6" t="n">
         <v>2</v>
@@ -20968,13 +20951,13 @@
         <v>209</v>
       </c>
       <c r="AL226" s="11" t="s">
-        <v>712</v>
-      </c>
-      <c r="AM226" s="22" t="n">
+        <v>709</v>
+      </c>
+      <c r="AM226" s="23" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="n">
         <v>210</v>
       </c>
@@ -20988,11 +20971,11 @@
         <v>41</v>
       </c>
       <c r="E227" s="6"/>
-      <c r="F227" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="G227" s="6" t="s">
-        <v>714</v>
+      <c r="F227" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="G227" s="14" t="s">
+        <v>711</v>
       </c>
       <c r="H227" s="6" t="s">
         <v>86</v>
@@ -21015,7 +20998,7 @@
       <c r="V227" s="6"/>
       <c r="W227" s="6"/>
       <c r="X227" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Y227" s="6"/>
       <c r="Z227" s="6"/>
@@ -21026,13 +21009,13 @@
         <v>97</v>
       </c>
       <c r="AE227" s="8"/>
-      <c r="AF227" s="19"/>
+      <c r="AF227" s="21"/>
       <c r="AG227" s="6"/>
       <c r="AH227" s="6" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="AI227" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AJ227" s="6" t="n">
         <v>3</v>
@@ -21041,13 +21024,13 @@
         <v>210</v>
       </c>
       <c r="AL227" s="11" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="AM227" s="6" t="n">
         <v>209</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="n">
         <v>211</v>
       </c>
@@ -21061,14 +21044,14 @@
         <v>41</v>
       </c>
       <c r="E228" s="6"/>
-      <c r="F228" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="G228" s="6" t="s">
-        <v>718</v>
+      <c r="F228" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="G228" s="14" t="s">
+        <v>715</v>
       </c>
       <c r="H228" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I228" s="6"/>
       <c r="J228" s="6" t="n">
@@ -21077,47 +21060,47 @@
       <c r="K228" s="6"/>
       <c r="L228" s="6"/>
       <c r="M228" s="6" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="N228" s="9" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="O228" s="9"/>
       <c r="P228" s="9"/>
       <c r="Q228" s="9" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="R228" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S228" s="6" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="T228" s="6"/>
       <c r="U228" s="6"/>
       <c r="V228" s="6"/>
       <c r="W228" s="6"/>
       <c r="X228" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Y228" s="6" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="Z228" s="6"/>
       <c r="AA228" s="6"/>
       <c r="AB228" s="6"/>
       <c r="AC228" s="6"/>
       <c r="AD228" s="6" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="AE228" s="8"/>
       <c r="AF228" s="6"/>
       <c r="AG228" s="6"/>
       <c r="AH228" s="6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="AI228" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AJ228" s="6" t="n">
         <v>4</v>
@@ -21130,7 +21113,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="n">
         <v>212</v>
       </c>
@@ -21144,14 +21127,14 @@
         <v>41</v>
       </c>
       <c r="E229" s="6"/>
-      <c r="F229" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="G229" s="6" t="s">
-        <v>725</v>
+      <c r="F229" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="G229" s="14" t="s">
+        <v>722</v>
       </c>
       <c r="H229" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I229" s="6"/>
       <c r="J229" s="6" t="n">
@@ -21160,47 +21143,47 @@
       <c r="K229" s="6"/>
       <c r="L229" s="6"/>
       <c r="M229" s="6" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="N229" s="9" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="O229" s="9"/>
       <c r="P229" s="9"/>
       <c r="Q229" s="9" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="R229" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S229" s="6" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="T229" s="6"/>
       <c r="U229" s="6"/>
       <c r="V229" s="6"/>
       <c r="W229" s="6"/>
       <c r="X229" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Y229" s="6" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="Z229" s="6"/>
       <c r="AA229" s="6"/>
       <c r="AB229" s="6"/>
       <c r="AC229" s="6"/>
       <c r="AD229" s="6" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="AE229" s="8"/>
       <c r="AF229" s="6"/>
       <c r="AG229" s="6"/>
       <c r="AH229" s="6" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="AI229" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AJ229" s="6" t="n">
         <v>4</v>
@@ -21213,7 +21196,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="n">
         <v>213</v>
       </c>
@@ -21227,14 +21210,14 @@
         <v>41</v>
       </c>
       <c r="E230" s="6"/>
-      <c r="F230" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="G230" s="6" t="s">
-        <v>728</v>
+      <c r="F230" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="G230" s="14" t="s">
+        <v>725</v>
       </c>
       <c r="H230" s="6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I230" s="6"/>
       <c r="J230" s="6" t="n">
@@ -21256,7 +21239,7 @@
       <c r="V230" s="6"/>
       <c r="W230" s="6"/>
       <c r="X230" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Y230" s="6"/>
       <c r="Z230" s="6"/>
@@ -21264,14 +21247,14 @@
       <c r="AB230" s="6"/>
       <c r="AC230" s="6"/>
       <c r="AD230" s="6" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="AE230" s="8"/>
       <c r="AF230" s="6"/>
       <c r="AG230" s="6"/>
       <c r="AH230" s="6"/>
       <c r="AI230" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AJ230" s="6" t="n">
         <v>3</v>
@@ -21280,13 +21263,13 @@
         <v>213</v>
       </c>
       <c r="AL230" s="11" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="AM230" s="6" t="n">
         <v>209</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="n">
         <v>214</v>
       </c>
@@ -21300,11 +21283,11 @@
         <v>41</v>
       </c>
       <c r="E231" s="6"/>
-      <c r="F231" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="G231" s="6" t="s">
-        <v>731</v>
+      <c r="F231" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="G231" s="14" t="s">
+        <v>728</v>
       </c>
       <c r="H231" s="6" t="s">
         <v>91</v>
@@ -21316,35 +21299,35 @@
       <c r="K231" s="6"/>
       <c r="L231" s="6"/>
       <c r="M231" s="6" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="N231" s="9" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="O231" s="9"/>
       <c r="P231" s="9"/>
       <c r="Q231" s="9" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="R231" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S231" s="6" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="T231" s="6"/>
       <c r="U231" s="6"/>
       <c r="V231" s="6"/>
       <c r="W231" s="6"/>
       <c r="X231" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Y231" s="6"/>
       <c r="Z231" s="6"/>
       <c r="AA231" s="6"/>
       <c r="AB231" s="6"/>
       <c r="AC231" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AD231" s="6" t="s">
         <v>97</v>
@@ -21353,10 +21336,10 @@
       <c r="AF231" s="6"/>
       <c r="AG231" s="6"/>
       <c r="AH231" s="6" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="AI231" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AJ231" s="6" t="n">
         <v>4</v>
@@ -21369,7 +21352,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="n">
         <v>215</v>
       </c>
@@ -21383,11 +21366,11 @@
         <v>41</v>
       </c>
       <c r="E232" s="6"/>
-      <c r="F232" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="G232" s="6" t="s">
-        <v>733</v>
+      <c r="F232" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="G232" s="14" t="s">
+        <v>730</v>
       </c>
       <c r="H232" s="6" t="s">
         <v>91</v>
@@ -21399,35 +21382,35 @@
       <c r="K232" s="6"/>
       <c r="L232" s="6"/>
       <c r="M232" s="6" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="N232" s="9" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="O232" s="9"/>
       <c r="P232" s="9"/>
       <c r="Q232" s="9" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="R232" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S232" s="6" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="T232" s="6"/>
       <c r="U232" s="6"/>
       <c r="V232" s="6"/>
       <c r="W232" s="6"/>
       <c r="X232" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Y232" s="6"/>
       <c r="Z232" s="6"/>
       <c r="AA232" s="6"/>
       <c r="AB232" s="6"/>
       <c r="AC232" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AD232" s="6" t="s">
         <v>97</v>
@@ -21436,10 +21419,10 @@
       <c r="AF232" s="6"/>
       <c r="AG232" s="6"/>
       <c r="AH232" s="6" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="AI232" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AJ232" s="6" t="n">
         <v>4</v>
@@ -21452,7 +21435,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="n">
         <v>216</v>
       </c>
@@ -21466,14 +21449,14 @@
         <v>41</v>
       </c>
       <c r="E233" s="6"/>
-      <c r="F233" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="G233" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="H233" s="6" t="s">
-        <v>738</v>
+      <c r="F233" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="G233" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="H233" s="24" t="s">
+        <v>735</v>
       </c>
       <c r="I233" s="6"/>
       <c r="J233" s="6" t="n">
@@ -21485,7 +21468,7 @@
         <v>478</v>
       </c>
       <c r="N233" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O233" s="9"/>
       <c r="P233" s="9"/>
@@ -21494,14 +21477,14 @@
         <v>93</v>
       </c>
       <c r="S233" s="6" t="s">
-        <v>94</v>
+        <v>556</v>
       </c>
       <c r="T233" s="6"/>
       <c r="U233" s="6"/>
       <c r="V233" s="6"/>
       <c r="W233" s="6"/>
       <c r="X233" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Y233" s="6"/>
       <c r="Z233" s="6"/>
@@ -21515,10 +21498,10 @@
       <c r="AF233" s="6"/>
       <c r="AG233" s="6"/>
       <c r="AH233" s="6" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="AI233" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AJ233" s="6" t="n">
         <v>3</v>
@@ -21531,7 +21514,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="n">
         <v>217</v>
       </c>
@@ -21548,13 +21531,13 @@
         <v>495</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="H234" s="6" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="I234" s="6"/>
       <c r="J234" s="6"/>
@@ -21562,21 +21545,21 @@
       <c r="L234" s="6"/>
       <c r="M234" s="6"/>
       <c r="N234" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O234" s="9"/>
       <c r="P234" s="9"/>
       <c r="Q234" s="9"/>
       <c r="R234" s="6"/>
       <c r="S234" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="T234" s="6"/>
       <c r="U234" s="6"/>
       <c r="V234" s="6"/>
       <c r="W234" s="6"/>
-      <c r="X234" s="20" t="s">
-        <v>690</v>
+      <c r="X234" s="22" t="s">
+        <v>688</v>
       </c>
       <c r="Y234" s="6"/>
       <c r="Z234" s="6"/>
@@ -21584,7 +21567,7 @@
       <c r="AB234" s="6"/>
       <c r="AC234" s="6"/>
       <c r="AD234" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AE234" s="8" t="n">
         <v>0.01625</v>
@@ -21592,10 +21575,10 @@
       <c r="AF234" s="6"/>
       <c r="AG234" s="6"/>
       <c r="AH234" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AI234" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AJ234" s="6" t="n">
         <v>2</v>
@@ -21604,11 +21587,11 @@
         <v>217</v>
       </c>
       <c r="AL234" s="6"/>
-      <c r="AM234" s="22" t="n">
+      <c r="AM234" s="23" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="n">
         <v>218</v>
       </c>
@@ -21621,17 +21604,17 @@
       <c r="D235" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="E235" s="22" t="s">
+      <c r="E235" s="23" t="s">
         <v>495</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="H235" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I235" s="6"/>
       <c r="J235" s="6" t="n">
@@ -21652,8 +21635,8 @@
       <c r="U235" s="6"/>
       <c r="V235" s="6"/>
       <c r="W235" s="6"/>
-      <c r="X235" s="20" t="s">
-        <v>743</v>
+      <c r="X235" s="22" t="s">
+        <v>740</v>
       </c>
       <c r="Y235" s="6"/>
       <c r="Z235" s="6"/>
@@ -21661,7 +21644,7 @@
       <c r="AB235" s="6"/>
       <c r="AC235" s="6"/>
       <c r="AD235" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AE235" s="8" t="n">
         <v>0.03</v>
@@ -21676,14 +21659,14 @@
       <c r="AK235" s="6" t="n">
         <v>218</v>
       </c>
-      <c r="AL235" s="15" t="s">
-        <v>745</v>
-      </c>
-      <c r="AM235" s="24" t="n">
+      <c r="AL235" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="AM235" s="25" t="n">
         <v>301</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="n">
         <v>219</v>
       </c>
@@ -21696,17 +21679,17 @@
       <c r="D236" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="E236" s="22" t="s">
+      <c r="E236" s="23" t="s">
         <v>495</v>
       </c>
       <c r="F236" s="6" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H236" s="6" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="I236" s="6"/>
       <c r="J236" s="6" t="n">
@@ -21720,7 +21703,7 @@
         <v>478</v>
       </c>
       <c r="N236" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O236" s="9"/>
       <c r="P236" s="9"/>
@@ -21729,14 +21712,14 @@
         <v>93</v>
       </c>
       <c r="S236" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="T236" s="6"/>
       <c r="U236" s="6"/>
       <c r="V236" s="6"/>
       <c r="W236" s="6"/>
-      <c r="X236" s="20" t="s">
-        <v>743</v>
+      <c r="X236" s="22" t="s">
+        <v>740</v>
       </c>
       <c r="Y236" s="6"/>
       <c r="Z236" s="6"/>
@@ -21744,13 +21727,13 @@
       <c r="AB236" s="6"/>
       <c r="AC236" s="6"/>
       <c r="AD236" s="6" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="AE236" s="8"/>
       <c r="AF236" s="6"/>
       <c r="AG236" s="6"/>
       <c r="AH236" s="6" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="AI236" s="6"/>
       <c r="AJ236" s="6" t="n">
@@ -21764,7 +21747,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="n">
         <v>220</v>
       </c>
@@ -21779,10 +21762,10 @@
       </c>
       <c r="E237" s="6"/>
       <c r="F237" s="6" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H237" s="6" t="s">
         <v>86</v>
@@ -21805,7 +21788,7 @@
       <c r="X237" s="6"/>
       <c r="Y237" s="6"/>
       <c r="Z237" s="6"/>
-      <c r="AA237" s="15"/>
+      <c r="AA237" s="17"/>
       <c r="AB237" s="6"/>
       <c r="AC237" s="6"/>
       <c r="AD237" s="6" t="s">
@@ -21823,13 +21806,13 @@
         <v>220</v>
       </c>
       <c r="AL237" s="11" t="s">
-        <v>753</v>
-      </c>
-      <c r="AM237" s="22" t="n">
+        <v>750</v>
+      </c>
+      <c r="AM237" s="23" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="n">
         <v>221</v>
       </c>
@@ -21843,16 +21826,16 @@
         <v>490</v>
       </c>
       <c r="E238" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="F238" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="G238" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="H238" s="6" t="s">
         <v>754</v>
-      </c>
-      <c r="F238" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="G238" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="H238" s="6" t="s">
-        <v>757</v>
       </c>
       <c r="I238" s="6"/>
       <c r="J238" s="6" t="n">
@@ -21862,7 +21845,7 @@
       <c r="L238" s="6"/>
       <c r="M238" s="6"/>
       <c r="N238" s="6" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="O238" s="9"/>
       <c r="P238" s="9"/>
@@ -21871,18 +21854,18 @@
         <v>93</v>
       </c>
       <c r="S238" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="T238" s="6"/>
       <c r="U238" s="6"/>
       <c r="V238" s="6"/>
       <c r="W238" s="6"/>
       <c r="X238" s="6"/>
-      <c r="Y238" s="21" t="s">
-        <v>758</v>
+      <c r="Y238" s="14" t="s">
+        <v>755</v>
       </c>
       <c r="Z238" s="6"/>
-      <c r="AA238" s="15"/>
+      <c r="AA238" s="17"/>
       <c r="AB238" s="6"/>
       <c r="AC238" s="6"/>
       <c r="AD238" s="6" t="s">
@@ -21906,7 +21889,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="n">
         <v>222</v>
       </c>
@@ -21920,16 +21903,16 @@
         <v>490</v>
       </c>
       <c r="E239" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="F239" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="G239" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="H239" s="6" t="s">
         <v>754</v>
-      </c>
-      <c r="F239" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="G239" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="H239" s="6" t="s">
-        <v>757</v>
       </c>
       <c r="I239" s="6"/>
       <c r="J239" s="6" t="n">
@@ -21939,7 +21922,7 @@
       <c r="L239" s="6"/>
       <c r="M239" s="6"/>
       <c r="N239" s="6" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="O239" s="9"/>
       <c r="P239" s="9"/>
@@ -21948,7 +21931,7 @@
         <v>93</v>
       </c>
       <c r="S239" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="T239" s="6"/>
       <c r="U239" s="6"/>
@@ -21956,10 +21939,10 @@
       <c r="W239" s="6"/>
       <c r="X239" s="6"/>
       <c r="Y239" s="6" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="Z239" s="6"/>
-      <c r="AA239" s="15"/>
+      <c r="AA239" s="17"/>
       <c r="AB239" s="6"/>
       <c r="AC239" s="6"/>
       <c r="AD239" s="6" t="s">
@@ -21983,7 +21966,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="n">
         <v>223</v>
       </c>
@@ -21997,16 +21980,16 @@
         <v>490</v>
       </c>
       <c r="E240" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="G240" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="H240" s="6" t="s">
         <v>754</v>
-      </c>
-      <c r="F240" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="G240" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="H240" s="6" t="s">
-        <v>757</v>
       </c>
       <c r="I240" s="6"/>
       <c r="J240" s="6" t="n">
@@ -22015,8 +21998,8 @@
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
       <c r="M240" s="6"/>
-      <c r="N240" s="21" t="s">
-        <v>764</v>
+      <c r="N240" s="14" t="s">
+        <v>761</v>
       </c>
       <c r="O240" s="9"/>
       <c r="P240" s="9"/>
@@ -22025,7 +22008,7 @@
         <v>93</v>
       </c>
       <c r="S240" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="T240" s="6"/>
       <c r="U240" s="6"/>
@@ -22033,10 +22016,10 @@
       <c r="W240" s="6"/>
       <c r="X240" s="6"/>
       <c r="Y240" s="6" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="Z240" s="6"/>
-      <c r="AA240" s="15"/>
+      <c r="AA240" s="17"/>
       <c r="AB240" s="6"/>
       <c r="AC240" s="6"/>
       <c r="AD240" s="6" t="s">
@@ -22060,7 +22043,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="n">
         <v>224</v>
       </c>
@@ -22071,22 +22054,22 @@
         <v>40</v>
       </c>
       <c r="D241" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E241" s="23" t="s">
+        <v>763</v>
+      </c>
+      <c r="F241" s="23" t="s">
+        <v>764</v>
+      </c>
+      <c r="G241" s="23" t="s">
         <v>765</v>
       </c>
-      <c r="E241" s="22" t="s">
+      <c r="H241" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="F241" s="22" t="s">
+      <c r="I241" s="6" t="s">
         <v>767</v>
-      </c>
-      <c r="G241" s="22" t="s">
-        <v>768</v>
-      </c>
-      <c r="H241" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="I241" s="6" t="s">
-        <v>770</v>
       </c>
       <c r="J241" s="6"/>
       <c r="K241" s="6"/>
@@ -22098,7 +22081,7 @@
       <c r="Q241" s="6"/>
       <c r="R241" s="6"/>
       <c r="S241" s="6" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="T241" s="6"/>
       <c r="U241" s="6"/>
@@ -22121,11 +22104,11 @@
         <v>224</v>
       </c>
       <c r="AL241" s="11" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="AM241" s="6"/>
     </row>
-    <row r="242" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="n">
         <v>225</v>
       </c>
@@ -22136,22 +22119,22 @@
         <v>40</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="G242" s="18" t="s">
-        <v>775</v>
+        <v>771</v>
+      </c>
+      <c r="G242" s="20" t="s">
+        <v>772</v>
       </c>
       <c r="H242" s="6" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="I242" s="6" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="J242" s="6"/>
       <c r="K242" s="6"/>
@@ -22163,7 +22146,7 @@
       <c r="Q242" s="6"/>
       <c r="R242" s="6"/>
       <c r="S242" s="6" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="T242" s="6"/>
       <c r="U242" s="6"/>
@@ -22186,11 +22169,11 @@
         <v>225</v>
       </c>
       <c r="AL242" s="11" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="AM242" s="6"/>
     </row>
-    <row r="243" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="n">
         <v>226</v>
       </c>
@@ -22201,36 +22184,36 @@
         <v>40</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="E243" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="E243" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="F243" s="23" t="s">
+        <v>775</v>
+      </c>
+      <c r="G243" s="23" t="s">
+        <v>776</v>
+      </c>
+      <c r="H243" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="F243" s="22" t="s">
+      <c r="I243" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="G243" s="22" t="s">
-        <v>779</v>
-      </c>
-      <c r="H243" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="I243" s="6" t="s">
-        <v>781</v>
       </c>
       <c r="J243" s="6"/>
       <c r="K243" s="6"/>
       <c r="L243" s="6"/>
       <c r="M243" s="6"/>
       <c r="N243" s="11" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="O243" s="6"/>
       <c r="P243" s="6"/>
       <c r="Q243" s="6"/>
       <c r="R243" s="6"/>
       <c r="S243" s="6" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="T243" s="6"/>
       <c r="U243" s="6"/>
@@ -22257,7 +22240,7 @@
       </c>
       <c r="AM243" s="6"/>
     </row>
-    <row r="244" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="n">
         <v>228</v>
       </c>
@@ -22268,22 +22251,22 @@
         <v>40</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="E244" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="E244" s="23" t="s">
+        <v>780</v>
+      </c>
+      <c r="F244" s="23" t="s">
+        <v>781</v>
+      </c>
+      <c r="G244" s="23" t="s">
+        <v>782</v>
+      </c>
+      <c r="H244" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="F244" s="22" t="s">
+      <c r="I244" s="6" t="s">
         <v>784</v>
-      </c>
-      <c r="G244" s="22" t="s">
-        <v>785</v>
-      </c>
-      <c r="H244" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="I244" s="6" t="s">
-        <v>787</v>
       </c>
       <c r="J244" s="6"/>
       <c r="K244" s="6"/>
@@ -22295,7 +22278,7 @@
       <c r="Q244" s="6"/>
       <c r="R244" s="6"/>
       <c r="S244" s="6" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="T244" s="6"/>
       <c r="U244" s="6"/>
@@ -22318,11 +22301,11 @@
         <v>228</v>
       </c>
       <c r="AL244" s="11" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="AM244" s="6"/>
     </row>
-    <row r="245" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="n">
         <v>229</v>
       </c>
@@ -22333,22 +22316,22 @@
         <v>40</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="E245" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="E245" s="23" t="s">
+        <v>786</v>
+      </c>
+      <c r="F245" s="23" t="s">
+        <v>787</v>
+      </c>
+      <c r="G245" s="23" t="s">
+        <v>788</v>
+      </c>
+      <c r="H245" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="F245" s="22" t="s">
-        <v>790</v>
-      </c>
-      <c r="G245" s="22" t="s">
-        <v>791</v>
-      </c>
-      <c r="H245" s="6" t="s">
-        <v>792</v>
-      </c>
       <c r="I245" s="6" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="J245" s="6"/>
       <c r="K245" s="6"/>
@@ -22360,7 +22343,7 @@
       <c r="Q245" s="6"/>
       <c r="R245" s="6"/>
       <c r="S245" s="6" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="T245" s="6"/>
       <c r="U245" s="6"/>
@@ -22387,7 +22370,7 @@
       </c>
       <c r="AM245" s="6"/>
     </row>
-    <row r="246" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="n">
         <v>230</v>
       </c>
@@ -22398,36 +22381,36 @@
         <v>40</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="E246" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="E246" s="23" t="s">
+        <v>790</v>
+      </c>
+      <c r="F246" s="23" t="s">
+        <v>791</v>
+      </c>
+      <c r="G246" s="23" t="s">
+        <v>792</v>
+      </c>
+      <c r="H246" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="F246" s="22" t="s">
-        <v>794</v>
-      </c>
-      <c r="G246" s="22" t="s">
-        <v>795</v>
-      </c>
-      <c r="H246" s="6" t="s">
-        <v>796</v>
-      </c>
       <c r="I246" s="6" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="J246" s="6"/>
       <c r="K246" s="6"/>
       <c r="L246" s="6"/>
       <c r="M246" s="6"/>
       <c r="N246" s="6" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="O246" s="6"/>
       <c r="P246" s="6"/>
       <c r="Q246" s="6"/>
       <c r="R246" s="6"/>
       <c r="S246" s="6" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="T246" s="6"/>
       <c r="U246" s="6"/>
@@ -22452,7 +22435,7 @@
       <c r="AL246" s="6"/>
       <c r="AM246" s="6"/>
     </row>
-    <row r="247" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="n">
         <v>231</v>
       </c>
@@ -22463,36 +22446,36 @@
         <v>40</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="E247" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="E247" s="23" t="s">
+        <v>796</v>
+      </c>
+      <c r="F247" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="G247" s="23" t="s">
+        <v>798</v>
+      </c>
+      <c r="H247" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="F247" s="22" t="s">
-        <v>800</v>
-      </c>
-      <c r="G247" s="22" t="s">
-        <v>801</v>
-      </c>
-      <c r="H247" s="6" t="s">
-        <v>802</v>
-      </c>
       <c r="I247" s="6" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="J247" s="6"/>
       <c r="K247" s="6"/>
       <c r="L247" s="6"/>
       <c r="M247" s="6"/>
       <c r="N247" s="6" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="O247" s="6"/>
       <c r="P247" s="6"/>
       <c r="Q247" s="6"/>
       <c r="R247" s="6"/>
       <c r="S247" s="6" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="T247" s="6"/>
       <c r="U247" s="6"/>
@@ -22517,7 +22500,7 @@
       <c r="AL247" s="6"/>
       <c r="AM247" s="6"/>
     </row>
-    <row r="248" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="n">
         <v>233</v>
       </c>
@@ -22528,38 +22511,38 @@
         <v>40</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="E248" s="22" t="s">
-        <v>804</v>
-      </c>
-      <c r="F248" s="22" t="s">
-        <v>805</v>
-      </c>
-      <c r="G248" s="22" t="s">
-        <v>806</v>
+        <v>762</v>
+      </c>
+      <c r="E248" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="F248" s="23" t="s">
+        <v>802</v>
+      </c>
+      <c r="G248" s="23" t="s">
+        <v>803</v>
       </c>
       <c r="H248" s="6" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="I248" s="6" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="J248" s="6"/>
       <c r="K248" s="6"/>
       <c r="L248" s="6"/>
       <c r="M248" s="6" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="N248" s="11" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="O248" s="6"/>
       <c r="P248" s="6"/>
       <c r="Q248" s="6"/>
       <c r="R248" s="6"/>
       <c r="S248" s="6" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="T248" s="6"/>
       <c r="U248" s="6"/>
@@ -22586,7 +22569,7 @@
       </c>
       <c r="AM248" s="6"/>
     </row>
-    <row r="249" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="n">
         <v>234</v>
       </c>
@@ -22597,38 +22580,38 @@
         <v>40</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="E249" s="22" t="s">
-        <v>804</v>
-      </c>
-      <c r="F249" s="22" t="s">
-        <v>805</v>
-      </c>
-      <c r="G249" s="22" t="s">
-        <v>806</v>
+        <v>762</v>
+      </c>
+      <c r="E249" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="F249" s="23" t="s">
+        <v>802</v>
+      </c>
+      <c r="G249" s="23" t="s">
+        <v>803</v>
       </c>
       <c r="H249" s="6" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="I249" s="6" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="J249" s="6"/>
       <c r="K249" s="6"/>
       <c r="L249" s="6"/>
       <c r="M249" s="6" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="N249" s="11" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="O249" s="6"/>
       <c r="P249" s="6"/>
       <c r="Q249" s="6"/>
       <c r="R249" s="6"/>
       <c r="S249" s="6" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="T249" s="6"/>
       <c r="U249" s="6"/>
@@ -22655,7 +22638,7 @@
       </c>
       <c r="AM249" s="6"/>
     </row>
-    <row r="250" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="n">
         <v>235</v>
       </c>
@@ -22666,38 +22649,38 @@
         <v>40</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="E250" s="22" t="s">
-        <v>804</v>
-      </c>
-      <c r="F250" s="22" t="s">
-        <v>805</v>
-      </c>
-      <c r="G250" s="22" t="s">
-        <v>806</v>
+        <v>762</v>
+      </c>
+      <c r="E250" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="F250" s="23" t="s">
+        <v>802</v>
+      </c>
+      <c r="G250" s="23" t="s">
+        <v>803</v>
       </c>
       <c r="H250" s="6" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="I250" s="6" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="J250" s="6"/>
       <c r="K250" s="6"/>
       <c r="L250" s="6"/>
       <c r="M250" s="6" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="N250" s="11" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="O250" s="6"/>
       <c r="P250" s="6"/>
       <c r="Q250" s="6"/>
       <c r="R250" s="6"/>
       <c r="S250" s="6" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="T250" s="6"/>
       <c r="U250" s="6"/>
@@ -22724,7 +22707,7 @@
       </c>
       <c r="AM250" s="6"/>
     </row>
-    <row r="251" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="n">
         <v>236</v>
       </c>
@@ -22735,38 +22718,38 @@
         <v>40</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="E251" s="22" t="s">
-        <v>804</v>
-      </c>
-      <c r="F251" s="22" t="s">
-        <v>805</v>
-      </c>
-      <c r="G251" s="22" t="s">
-        <v>806</v>
+        <v>762</v>
+      </c>
+      <c r="E251" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="F251" s="23" t="s">
+        <v>802</v>
+      </c>
+      <c r="G251" s="23" t="s">
+        <v>803</v>
       </c>
       <c r="H251" s="6" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="I251" s="6" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="J251" s="6"/>
       <c r="K251" s="6"/>
       <c r="L251" s="6"/>
       <c r="M251" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="N251" s="25" t="s">
-        <v>809</v>
+        <v>804</v>
+      </c>
+      <c r="N251" s="26" t="s">
+        <v>806</v>
       </c>
       <c r="O251" s="6"/>
       <c r="P251" s="6"/>
       <c r="Q251" s="6"/>
       <c r="R251" s="6"/>
       <c r="S251" s="6" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="T251" s="6"/>
       <c r="U251" s="6"/>
@@ -22793,7 +22776,7 @@
       </c>
       <c r="AM251" s="6"/>
     </row>
-    <row r="252" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="n">
         <v>237</v>
       </c>
@@ -22804,38 +22787,38 @@
         <v>40</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="E252" s="22" t="s">
-        <v>804</v>
-      </c>
-      <c r="F252" s="22" t="s">
-        <v>805</v>
-      </c>
-      <c r="G252" s="22" t="s">
-        <v>806</v>
+        <v>762</v>
+      </c>
+      <c r="E252" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="F252" s="23" t="s">
+        <v>802</v>
+      </c>
+      <c r="G252" s="23" t="s">
+        <v>803</v>
       </c>
       <c r="H252" s="6" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="I252" s="6" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="J252" s="6"/>
       <c r="K252" s="6"/>
       <c r="L252" s="6"/>
       <c r="M252" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="N252" s="26" t="s">
         <v>807</v>
-      </c>
-      <c r="N252" s="25" t="s">
-        <v>810</v>
       </c>
       <c r="O252" s="6"/>
       <c r="P252" s="6"/>
       <c r="Q252" s="6"/>
       <c r="R252" s="6"/>
       <c r="S252" s="6" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="T252" s="6"/>
       <c r="U252" s="6"/>
@@ -22857,10 +22840,10 @@
       <c r="AK252" s="6" t="n">
         <v>237</v>
       </c>
-      <c r="AL252" s="26"/>
+      <c r="AL252" s="27"/>
       <c r="AM252" s="6"/>
     </row>
-    <row r="253" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="n">
         <v>238</v>
       </c>
@@ -22871,38 +22854,38 @@
         <v>40</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="E253" s="22" t="s">
-        <v>804</v>
-      </c>
-      <c r="F253" s="22" t="s">
-        <v>805</v>
-      </c>
-      <c r="G253" s="22" t="s">
-        <v>806</v>
+        <v>762</v>
+      </c>
+      <c r="E253" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="F253" s="23" t="s">
+        <v>802</v>
+      </c>
+      <c r="G253" s="23" t="s">
+        <v>803</v>
       </c>
       <c r="H253" s="6" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="I253" s="6" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="J253" s="6"/>
       <c r="K253" s="6"/>
       <c r="L253" s="6"/>
       <c r="M253" s="6" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="N253" s="11" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="O253" s="6"/>
       <c r="P253" s="6"/>
       <c r="Q253" s="6"/>
       <c r="R253" s="6"/>
       <c r="S253" s="6" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="T253" s="6"/>
       <c r="U253" s="6"/>
@@ -22925,11 +22908,11 @@
         <v>238</v>
       </c>
       <c r="AL253" s="11" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="AM253" s="6"/>
     </row>
-    <row r="254" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="n">
         <v>239</v>
       </c>
@@ -22940,38 +22923,38 @@
         <v>40</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="E254" s="22" t="s">
-        <v>804</v>
-      </c>
-      <c r="F254" s="22" t="s">
-        <v>805</v>
-      </c>
-      <c r="G254" s="22" t="s">
-        <v>806</v>
+        <v>762</v>
+      </c>
+      <c r="E254" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="F254" s="23" t="s">
+        <v>802</v>
+      </c>
+      <c r="G254" s="23" t="s">
+        <v>803</v>
       </c>
       <c r="H254" s="6" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="I254" s="6" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="J254" s="6"/>
       <c r="K254" s="6"/>
       <c r="L254" s="6"/>
       <c r="M254" s="6" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="N254" s="11" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="O254" s="6"/>
       <c r="P254" s="6"/>
       <c r="Q254" s="6"/>
       <c r="R254" s="6"/>
       <c r="S254" s="6" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="T254" s="6"/>
       <c r="U254" s="6"/>
@@ -22993,7 +22976,7 @@
       <c r="AK254" s="6" t="n">
         <v>239</v>
       </c>
-      <c r="AL254" s="27" t="n">
+      <c r="AL254" s="28" t="n">
         <v>178</v>
       </c>
       <c r="AM254" s="6"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -14,6 +14,8 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$254</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$254</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AI$254</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$254</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Supermarket!$A$1:$AI$254</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1975,7 +1977,7 @@
     <t xml:space="preserve">Сок Дисплей 2-й: Зона</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Display 2d:: Lead SKURich - Orange - 1L</t>
+    <t xml:space="preserve">Juice Display 2d: Lead SKU Rich - Orange - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Сок Дисплей 2-й: Основной Рич - Апельсин - 1л</t>
@@ -2222,7 +2224,7 @@
     <t xml:space="preserve">198</t>
   </si>
   <si>
-    <t xml:space="preserve">Water Shelf: BonAqua Still -1L</t>
+    <t xml:space="preserve">Water Shelf: BonAqua Still - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 24</t>
@@ -3024,53 +3026,52 @@
   <dimension ref="A1:AM254"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F216" activeCellId="0" sqref="F216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.8259109311741"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="49.7894736842105"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="72.6275303643725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.0607287449393"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.4736842105263"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.4534412955466"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.0890688259109"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.94736842105263"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="57.5101214574899"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="49.9473684210526"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="24.9028340080972"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="86.8016194331984"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="73.8056680161943"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.8825910931174"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="88.3724696356275"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Supermarket" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AN$255</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AN$255</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Supermarket!$A$1:$AN$255</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Supermarket!$A$1:$AN$255</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="809">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2660,6 +2661,12 @@
   <si>
     <t xml:space="preserve">MeTimeAtH
 No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
   </si>
 </sst>
 </file>
@@ -2822,7 +2829,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2987,6 +2994,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -3059,56 +3070,60 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN255"/>
+  <dimension ref="1:256"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G239" activeCellId="0" sqref="G239"/>
+      <selection pane="bottomLeft" activeCell="A256" activeCellId="0" sqref="A256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="52.914979757085"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="77.3400809716599"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="53.3441295546559"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="77.9838056680162"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="48.2024291497976"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="9"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="82.0526315789474"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="53.0242914979757"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="82.6963562753036"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="61.4858299595142"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="61.914979757085"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="22.2793522267206"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="10.6032388663968"/>
@@ -23280,7 +23295,80 @@
       </c>
       <c r="AN255" s="8"/>
     </row>
+    <row r="256" s="41" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A256" s="8" t="n">
+        <v>521</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D256" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="E256" s="32"/>
+      <c r="F256" s="32" t="s">
+        <v>807</v>
+      </c>
+      <c r="G256" s="32" t="s">
+        <v>808</v>
+      </c>
+      <c r="H256" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="I256" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="J256" s="8"/>
+      <c r="K256" s="8"/>
+      <c r="L256" s="8"/>
+      <c r="M256" s="8"/>
+      <c r="N256" s="14"/>
+      <c r="O256" s="8"/>
+      <c r="P256" s="8"/>
+      <c r="Q256" s="8"/>
+      <c r="R256" s="8"/>
+      <c r="S256" s="8"/>
+      <c r="T256" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="U256" s="8"/>
+      <c r="V256" s="8"/>
+      <c r="W256" s="8"/>
+      <c r="X256" s="8"/>
+      <c r="Y256" s="8"/>
+      <c r="Z256" s="8"/>
+      <c r="AA256" s="8"/>
+      <c r="AB256" s="8"/>
+      <c r="AC256" s="8"/>
+      <c r="AD256" s="8"/>
+      <c r="AE256" s="11"/>
+      <c r="AF256" s="8"/>
+      <c r="AG256" s="8"/>
+      <c r="AH256" s="8"/>
+      <c r="AI256" s="8"/>
+      <c r="AJ256" s="8"/>
+      <c r="AK256" s="8"/>
+      <c r="AL256" s="8" t="n">
+        <v>521</v>
+      </c>
+      <c r="AM256" s="8"/>
+      <c r="AN256" s="8"/>
+      <c r="AMA256" s="0"/>
+      <c r="AMB256" s="0"/>
+      <c r="AMC256" s="0"/>
+      <c r="AMD256" s="0"/>
+      <c r="AME256" s="0"/>
+      <c r="AMF256" s="0"/>
+      <c r="AMG256" s="0"/>
+      <c r="AMH256" s="0"/>
+      <c r="AMI256" s="0"/>
+      <c r="AMJ256" s="0"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AN255"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -23288,5 +23376,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Supermarket" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AN$255</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AN$255</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Supermarket!$A$1:$AN$255</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Supermarket!$A$1:$AN$255</definedName>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="807">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2661,12 +2660,6 @@
   <si>
     <t xml:space="preserve">MeTimeAtH
 No_O_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
   </si>
 </sst>
 </file>
@@ -2829,7 +2822,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2994,10 +2987,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -3070,60 +3059,56 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:256"/>
+  <dimension ref="A1:AN255"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A256" activeCellId="0" sqref="A256"/>
+      <selection pane="bottomLeft" activeCell="G239" activeCellId="0" sqref="G239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="53.3441295546559"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="77.9838056680162"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="52.914979757085"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="77.3400809716599"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="47.7732793522267"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="9"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="82.6963562753036"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="82.0526315789474"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="61.914979757085"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="61.4858299595142"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="22.0647773279352"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="10.6032388663968"/>
@@ -23295,80 +23280,7 @@
       </c>
       <c r="AN255" s="8"/>
     </row>
-    <row r="256" s="41" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A256" s="8" t="n">
-        <v>521</v>
-      </c>
-      <c r="B256" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C256" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D256" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="E256" s="32"/>
-      <c r="F256" s="32" t="s">
-        <v>807</v>
-      </c>
-      <c r="G256" s="32" t="s">
-        <v>808</v>
-      </c>
-      <c r="H256" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="I256" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="J256" s="8"/>
-      <c r="K256" s="8"/>
-      <c r="L256" s="8"/>
-      <c r="M256" s="8"/>
-      <c r="N256" s="14"/>
-      <c r="O256" s="8"/>
-      <c r="P256" s="8"/>
-      <c r="Q256" s="8"/>
-      <c r="R256" s="8"/>
-      <c r="S256" s="8"/>
-      <c r="T256" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="U256" s="8"/>
-      <c r="V256" s="8"/>
-      <c r="W256" s="8"/>
-      <c r="X256" s="8"/>
-      <c r="Y256" s="8"/>
-      <c r="Z256" s="8"/>
-      <c r="AA256" s="8"/>
-      <c r="AB256" s="8"/>
-      <c r="AC256" s="8"/>
-      <c r="AD256" s="8"/>
-      <c r="AE256" s="11"/>
-      <c r="AF256" s="8"/>
-      <c r="AG256" s="8"/>
-      <c r="AH256" s="8"/>
-      <c r="AI256" s="8"/>
-      <c r="AJ256" s="8"/>
-      <c r="AK256" s="8"/>
-      <c r="AL256" s="8" t="n">
-        <v>521</v>
-      </c>
-      <c r="AM256" s="8"/>
-      <c r="AN256" s="8"/>
-      <c r="AMA256" s="0"/>
-      <c r="AMB256" s="0"/>
-      <c r="AMC256" s="0"/>
-      <c r="AMD256" s="0"/>
-      <c r="AME256" s="0"/>
-      <c r="AMF256" s="0"/>
-      <c r="AMG256" s="0"/>
-      <c r="AMH256" s="0"/>
-      <c r="AMI256" s="0"/>
-      <c r="AMJ256" s="0"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AN255"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -23376,6 +23288,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$256</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$256</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$256</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1763,8 +1764,7 @@
     <t xml:space="preserve">Checked only for scene that passed Juice Display 1st</t>
   </si>
   <si>
-    <t xml:space="preserve">146
-147
+    <t xml:space="preserve">147
 148
 149
 150</t>
@@ -3086,53 +3086,53 @@
   </sheetPr>
   <dimension ref="A1:AM256"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="Y227" activeCellId="0" sqref="Y227:Y228"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
+      <selection pane="bottomLeft" activeCell="AL164" activeCellId="0" sqref="AL164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.5222672064777"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="77.5546558704454"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="78.1983805668016"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.4898785425101"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="58.914979757085"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.39271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="84.7327935222672"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="122.971659919028"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="85.4817813765182"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="124.14979757085"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="62.2348178137652"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="62.7732793522267"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.74898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -14,6 +14,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$256</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$256</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$256</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Supermarket!$A$1:$AM$256</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3086,53 +3087,53 @@
   </sheetPr>
   <dimension ref="A1:AM256"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
-      <selection pane="bottomLeft" activeCell="AL164" activeCellId="0" sqref="AL164"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A212" activeCellId="0" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.0607287449393"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="78.1983805668016"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="78.9473684210526"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.8097165991903"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="59.3441295546559"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="59.8785425101215"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="85.4817813765182"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="124.14979757085"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="54.9514170040486"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="86.2307692307692"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="125.222672064777"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="55.4858299595142"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="62.7732793522267"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="63.3076923076923"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -19532,7 +19533,7 @@
       </c>
       <c r="AL208" s="6"/>
       <c r="AM208" s="6" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19611,7 +19612,7 @@
       </c>
       <c r="AL209" s="6"/>
       <c r="AM209" s="6" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19690,7 +19691,7 @@
       </c>
       <c r="AL210" s="6"/>
       <c r="AM210" s="6" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19769,7 +19770,7 @@
       </c>
       <c r="AL211" s="6"/>
       <c r="AM211" s="6" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19848,7 +19849,7 @@
       </c>
       <c r="AL212" s="6"/>
       <c r="AM212" s="6" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$256</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$256</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Supermarket!$A$1:$AM$256</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Supermarket!$A$1:$AM$256</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="807">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1334,10 +1335,10 @@
     <t xml:space="preserve">Добрый Уголки - Груша - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 6</t>
+    <t xml:space="preserve">Pulpy - Guava-Passion Fruit - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Гуава-Маракуйя - 0.45л</t>
   </si>
   <si>
     <t xml:space="preserve">Pulpy - Tropical - 0.9L</t>
@@ -1436,10 +1437,10 @@
     <t xml:space="preserve">4607174579729</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 8</t>
+    <t xml:space="preserve">Pulpy - Watermelon-Strawberry - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Арбуз-Клубника - 0.45л</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Berry Smoothie - 0.11L</t>
@@ -2924,6 +2925,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="172" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2932,19 +2941,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="174" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3088,52 +3089,52 @@
   <dimension ref="A1:AM256"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A212" activeCellId="0" sqref="A212"/>
+      <selection pane="bottomLeft" activeCell="F130" activeCellId="0" sqref="F130:AM130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.5951417004049"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="78.9473684210526"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.2388663967611"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="59.8785425101215"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="60.417004048583"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="86.2307692307692"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="125.222672064777"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="55.4858299595142"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="86.9797570850202"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="126.291497975708"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="55.914979757085"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="63.3076923076923"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="63.8421052631579"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12391,27 +12392,26 @@
       <c r="E118" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="F118" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="G118" s="6" t="s">
+      <c r="G118" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="H118" s="6" t="s">
+      <c r="H118" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="I118" s="6"/>
-      <c r="J118" s="8" t="n">
+      <c r="I118" s="15"/>
+      <c r="J118" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="K118" s="8"/>
-      <c r="L118" s="8"/>
-      <c r="M118" s="6" t="str">
-        <f aca="false">F118</f>
-        <v>NEW SKU 6</v>
-      </c>
-      <c r="N118" s="10" t="n">
-        <v>111111</v>
+      <c r="K118" s="16"/>
+      <c r="L118" s="16"/>
+      <c r="M118" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="N118" s="24" t="n">
+        <v>4650075423257</v>
       </c>
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
@@ -13375,27 +13375,26 @@
       <c r="E130" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F130" s="6" t="s">
+      <c r="F130" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="G130" s="6" t="s">
+      <c r="G130" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="H130" s="6" t="s">
+      <c r="H130" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="I130" s="6"/>
-      <c r="J130" s="8" t="n">
+      <c r="I130" s="15"/>
+      <c r="J130" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="K130" s="8"/>
-      <c r="L130" s="8"/>
-      <c r="M130" s="6" t="str">
-        <f aca="false">F130</f>
-        <v>NEW SKU 8</v>
-      </c>
-      <c r="N130" s="10" t="n">
-        <v>111111</v>
+      <c r="K130" s="16"/>
+      <c r="L130" s="16"/>
+      <c r="M130" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="N130" s="24" t="n">
+        <v>4650075423233</v>
       </c>
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
@@ -14877,7 +14876,7 @@
       <c r="S148" s="6"/>
       <c r="T148" s="6"/>
       <c r="U148" s="6"/>
-      <c r="V148" s="23"/>
+      <c r="V148" s="25"/>
       <c r="W148" s="6"/>
       <c r="X148" s="6"/>
       <c r="Y148" s="6"/>
@@ -14903,7 +14902,7 @@
       <c r="AK148" s="6" t="n">
         <v>131</v>
       </c>
-      <c r="AL148" s="24" t="s">
+      <c r="AL148" s="26" t="s">
         <v>475</v>
       </c>
       <c r="AM148" s="6" t="n">
@@ -14960,7 +14959,7 @@
       </c>
       <c r="T149" s="6"/>
       <c r="U149" s="6"/>
-      <c r="V149" s="23"/>
+      <c r="V149" s="25"/>
       <c r="W149" s="6"/>
       <c r="X149" s="6"/>
       <c r="Y149" s="6"/>
@@ -15033,7 +15032,7 @@
       </c>
       <c r="T150" s="6"/>
       <c r="U150" s="6"/>
-      <c r="V150" s="23" t="s">
+      <c r="V150" s="25" t="s">
         <v>485</v>
       </c>
       <c r="W150" s="6"/>
@@ -15096,7 +15095,7 @@
       <c r="M151" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="N151" s="25" t="n">
+      <c r="N151" s="24" t="n">
         <v>5449000000439</v>
       </c>
       <c r="O151" s="10" t="s">
@@ -15112,7 +15111,7 @@
       </c>
       <c r="T151" s="6"/>
       <c r="U151" s="6"/>
-      <c r="V151" s="23"/>
+      <c r="V151" s="25"/>
       <c r="W151" s="6"/>
       <c r="X151" s="6"/>
       <c r="Y151" s="6"/>
@@ -15183,7 +15182,7 @@
       <c r="S152" s="6"/>
       <c r="T152" s="6"/>
       <c r="U152" s="6"/>
-      <c r="V152" s="23"/>
+      <c r="V152" s="25"/>
       <c r="W152" s="6"/>
       <c r="X152" s="6"/>
       <c r="Y152" s="6"/>
@@ -15254,7 +15253,7 @@
       <c r="M153" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="N153" s="25" t="n">
+      <c r="N153" s="24" t="n">
         <v>5449000000439</v>
       </c>
       <c r="O153" s="10"/>
@@ -15268,7 +15267,7 @@
       </c>
       <c r="T153" s="6"/>
       <c r="U153" s="6"/>
-      <c r="V153" s="23"/>
+      <c r="V153" s="25"/>
       <c r="W153" s="6"/>
       <c r="X153" s="6"/>
       <c r="Y153" s="6"/>
@@ -15331,7 +15330,7 @@
       <c r="M154" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="N154" s="25" t="n">
+      <c r="N154" s="24" t="n">
         <v>5449000012203</v>
       </c>
       <c r="O154" s="10"/>
@@ -15345,7 +15344,7 @@
       </c>
       <c r="T154" s="6"/>
       <c r="U154" s="6"/>
-      <c r="V154" s="23"/>
+      <c r="V154" s="25"/>
       <c r="W154" s="6"/>
       <c r="X154" s="6"/>
       <c r="Y154" s="6"/>
@@ -15405,10 +15404,10 @@
       </c>
       <c r="K155" s="8"/>
       <c r="L155" s="8"/>
-      <c r="M155" s="26" t="s">
+      <c r="M155" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="N155" s="25" t="n">
+      <c r="N155" s="24" t="n">
         <v>5449000133335</v>
       </c>
       <c r="O155" s="10"/>
@@ -15421,7 +15420,7 @@
         <v>94</v>
       </c>
       <c r="T155" s="6"/>
-      <c r="U155" s="23"/>
+      <c r="U155" s="25"/>
       <c r="V155" s="6"/>
       <c r="W155" s="6"/>
       <c r="X155" s="6"/>
@@ -15485,7 +15484,7 @@
       <c r="M156" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="N156" s="25" t="n">
+      <c r="N156" s="24" t="n">
         <v>5449000052926</v>
       </c>
       <c r="O156" s="10"/>
@@ -15499,7 +15498,7 @@
       </c>
       <c r="T156" s="6"/>
       <c r="U156" s="6"/>
-      <c r="V156" s="23"/>
+      <c r="V156" s="25"/>
       <c r="W156" s="6"/>
       <c r="X156" s="6"/>
       <c r="Y156" s="6"/>
@@ -15570,7 +15569,7 @@
       <c r="S157" s="6"/>
       <c r="T157" s="6"/>
       <c r="U157" s="6"/>
-      <c r="V157" s="23"/>
+      <c r="V157" s="25"/>
       <c r="W157" s="6"/>
       <c r="X157" s="6"/>
       <c r="Y157" s="6"/>
@@ -15653,7 +15652,7 @@
       </c>
       <c r="T158" s="6"/>
       <c r="U158" s="6"/>
-      <c r="V158" s="23"/>
+      <c r="V158" s="25"/>
       <c r="W158" s="6"/>
       <c r="X158" s="6"/>
       <c r="Y158" s="6"/>
@@ -15799,7 +15798,7 @@
       <c r="S160" s="6"/>
       <c r="T160" s="6"/>
       <c r="U160" s="6"/>
-      <c r="V160" s="23"/>
+      <c r="V160" s="25"/>
       <c r="W160" s="6"/>
       <c r="X160" s="6"/>
       <c r="Y160" s="6"/>
@@ -15876,7 +15875,7 @@
       </c>
       <c r="T161" s="6"/>
       <c r="U161" s="6"/>
-      <c r="V161" s="23"/>
+      <c r="V161" s="25"/>
       <c r="W161" s="6"/>
       <c r="X161" s="6"/>
       <c r="Y161" s="6"/>
@@ -15953,7 +15952,7 @@
       </c>
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
-      <c r="V162" s="23"/>
+      <c r="V162" s="25"/>
       <c r="W162" s="6"/>
       <c r="X162" s="6"/>
       <c r="Y162" s="6"/>
@@ -16026,7 +16025,7 @@
       <c r="S163" s="6"/>
       <c r="T163" s="6"/>
       <c r="U163" s="6"/>
-      <c r="V163" s="23"/>
+      <c r="V163" s="25"/>
       <c r="W163" s="6"/>
       <c r="X163" s="6"/>
       <c r="Y163" s="6"/>
@@ -16111,7 +16110,7 @@
       </c>
       <c r="T164" s="6"/>
       <c r="U164" s="6"/>
-      <c r="V164" s="23"/>
+      <c r="V164" s="25"/>
       <c r="W164" s="6"/>
       <c r="X164" s="6"/>
       <c r="Y164" s="6"/>
@@ -16188,7 +16187,7 @@
       </c>
       <c r="T165" s="6"/>
       <c r="U165" s="6"/>
-      <c r="V165" s="23"/>
+      <c r="V165" s="25"/>
       <c r="W165" s="6"/>
       <c r="X165" s="6"/>
       <c r="Y165" s="6"/>
@@ -16265,7 +16264,7 @@
       </c>
       <c r="T166" s="6"/>
       <c r="U166" s="6"/>
-      <c r="V166" s="23"/>
+      <c r="V166" s="25"/>
       <c r="W166" s="6"/>
       <c r="X166" s="6"/>
       <c r="Y166" s="6"/>
@@ -16342,7 +16341,7 @@
       </c>
       <c r="T167" s="6"/>
       <c r="U167" s="6"/>
-      <c r="V167" s="23"/>
+      <c r="V167" s="25"/>
       <c r="W167" s="6"/>
       <c r="X167" s="6"/>
       <c r="Y167" s="6"/>
@@ -16413,7 +16412,7 @@
       <c r="S168" s="6"/>
       <c r="T168" s="6"/>
       <c r="U168" s="6"/>
-      <c r="V168" s="23"/>
+      <c r="V168" s="25"/>
       <c r="W168" s="6"/>
       <c r="X168" s="6"/>
       <c r="Y168" s="6"/>
@@ -16496,7 +16495,7 @@
       </c>
       <c r="T169" s="6"/>
       <c r="U169" s="6"/>
-      <c r="V169" s="23"/>
+      <c r="V169" s="25"/>
       <c r="W169" s="6"/>
       <c r="X169" s="6"/>
       <c r="Y169" s="6"/>
@@ -16648,7 +16647,7 @@
       </c>
       <c r="T171" s="6"/>
       <c r="U171" s="6"/>
-      <c r="V171" s="23"/>
+      <c r="V171" s="25"/>
       <c r="W171" s="6"/>
       <c r="X171" s="6"/>
       <c r="Y171" s="6"/>
@@ -16721,7 +16720,7 @@
       <c r="S172" s="6"/>
       <c r="T172" s="6"/>
       <c r="U172" s="6"/>
-      <c r="V172" s="23"/>
+      <c r="V172" s="25"/>
       <c r="W172" s="6"/>
       <c r="X172" s="6" t="s">
         <v>76</v>
@@ -16806,7 +16805,7 @@
       </c>
       <c r="T173" s="6"/>
       <c r="U173" s="6"/>
-      <c r="V173" s="23"/>
+      <c r="V173" s="25"/>
       <c r="W173" s="6"/>
       <c r="X173" s="6" t="s">
         <v>76</v>
@@ -16952,7 +16951,7 @@
       <c r="S175" s="6"/>
       <c r="T175" s="6"/>
       <c r="U175" s="6"/>
-      <c r="V175" s="23"/>
+      <c r="V175" s="25"/>
       <c r="W175" s="6"/>
       <c r="X175" s="6" t="s">
         <v>76</v>
@@ -17029,7 +17028,7 @@
       </c>
       <c r="T176" s="6"/>
       <c r="U176" s="6"/>
-      <c r="V176" s="23"/>
+      <c r="V176" s="25"/>
       <c r="W176" s="6"/>
       <c r="X176" s="6" t="s">
         <v>76</v>
@@ -17092,7 +17091,7 @@
       <c r="M177" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="N177" s="27" t="s">
+      <c r="N177" s="28" t="s">
         <v>300</v>
       </c>
       <c r="O177" s="10"/>
@@ -17106,7 +17105,7 @@
       </c>
       <c r="T177" s="6"/>
       <c r="U177" s="6"/>
-      <c r="V177" s="23"/>
+      <c r="V177" s="25"/>
       <c r="W177" s="6"/>
       <c r="X177" s="6" t="s">
         <v>76</v>
@@ -17169,7 +17168,7 @@
       <c r="M178" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N178" s="27" t="s">
+      <c r="N178" s="28" t="s">
         <v>219</v>
       </c>
       <c r="O178" s="10"/>
@@ -17183,7 +17182,7 @@
       </c>
       <c r="T178" s="6"/>
       <c r="U178" s="6"/>
-      <c r="V178" s="23"/>
+      <c r="V178" s="25"/>
       <c r="W178" s="6"/>
       <c r="X178" s="6" t="s">
         <v>76</v>
@@ -17256,9 +17255,9 @@
       <c r="S179" s="6"/>
       <c r="T179" s="6"/>
       <c r="U179" s="6"/>
-      <c r="V179" s="23"/>
+      <c r="V179" s="25"/>
       <c r="W179" s="6"/>
-      <c r="X179" s="28"/>
+      <c r="X179" s="23"/>
       <c r="Y179" s="6"/>
       <c r="Z179" s="6"/>
       <c r="AA179" s="6" t="n">
@@ -17339,9 +17338,9 @@
       </c>
       <c r="T180" s="6"/>
       <c r="U180" s="6"/>
-      <c r="V180" s="23"/>
+      <c r="V180" s="25"/>
       <c r="W180" s="6"/>
-      <c r="X180" s="28"/>
+      <c r="X180" s="23"/>
       <c r="Y180" s="6"/>
       <c r="Z180" s="6"/>
       <c r="AA180" s="6" t="n">
@@ -17416,7 +17415,7 @@
         <v>577</v>
       </c>
       <c r="W181" s="6"/>
-      <c r="X181" s="28"/>
+      <c r="X181" s="23"/>
       <c r="Y181" s="6"/>
       <c r="Z181" s="6"/>
       <c r="AA181" s="6" t="n">
@@ -17485,9 +17484,9 @@
       <c r="S182" s="6"/>
       <c r="T182" s="6"/>
       <c r="U182" s="6"/>
-      <c r="V182" s="23"/>
+      <c r="V182" s="25"/>
       <c r="W182" s="6"/>
-      <c r="X182" s="28"/>
+      <c r="X182" s="23"/>
       <c r="Y182" s="6"/>
       <c r="Z182" s="6"/>
       <c r="AA182" s="6" t="n">
@@ -17564,9 +17563,9 @@
       </c>
       <c r="T183" s="6"/>
       <c r="U183" s="6"/>
-      <c r="V183" s="23"/>
+      <c r="V183" s="25"/>
       <c r="W183" s="6"/>
-      <c r="X183" s="28"/>
+      <c r="X183" s="23"/>
       <c r="Y183" s="6"/>
       <c r="Z183" s="6"/>
       <c r="AA183" s="6" t="n">
@@ -17637,7 +17636,7 @@
       <c r="S184" s="6"/>
       <c r="T184" s="6"/>
       <c r="U184" s="6"/>
-      <c r="V184" s="23"/>
+      <c r="V184" s="25"/>
       <c r="W184" s="6"/>
       <c r="X184" s="6"/>
       <c r="Y184" s="6"/>
@@ -17720,7 +17719,7 @@
       </c>
       <c r="T185" s="6"/>
       <c r="U185" s="6"/>
-      <c r="V185" s="23"/>
+      <c r="V185" s="25"/>
       <c r="W185" s="6"/>
       <c r="X185" s="6"/>
       <c r="Y185" s="6"/>
@@ -17872,7 +17871,7 @@
       </c>
       <c r="T187" s="6"/>
       <c r="U187" s="6"/>
-      <c r="V187" s="23"/>
+      <c r="V187" s="25"/>
       <c r="W187" s="6"/>
       <c r="X187" s="6"/>
       <c r="Y187" s="6"/>
@@ -17945,7 +17944,7 @@
       <c r="S188" s="6"/>
       <c r="T188" s="6"/>
       <c r="U188" s="6"/>
-      <c r="V188" s="23"/>
+      <c r="V188" s="25"/>
       <c r="W188" s="6"/>
       <c r="X188" s="6" t="s">
         <v>81</v>
@@ -18028,7 +18027,7 @@
       </c>
       <c r="T189" s="6"/>
       <c r="U189" s="6"/>
-      <c r="V189" s="23"/>
+      <c r="V189" s="25"/>
       <c r="W189" s="6"/>
       <c r="X189" s="6" t="s">
         <v>81</v>
@@ -18174,7 +18173,7 @@
       <c r="S191" s="6"/>
       <c r="T191" s="6"/>
       <c r="U191" s="6"/>
-      <c r="V191" s="23"/>
+      <c r="V191" s="25"/>
       <c r="W191" s="6"/>
       <c r="X191" s="6" t="s">
         <v>81</v>
@@ -18251,7 +18250,7 @@
       </c>
       <c r="T192" s="6"/>
       <c r="U192" s="6"/>
-      <c r="V192" s="23"/>
+      <c r="V192" s="25"/>
       <c r="W192" s="6"/>
       <c r="X192" s="6" t="s">
         <v>81</v>
@@ -18328,7 +18327,7 @@
       </c>
       <c r="T193" s="6"/>
       <c r="U193" s="6"/>
-      <c r="V193" s="23"/>
+      <c r="V193" s="25"/>
       <c r="W193" s="6"/>
       <c r="X193" s="6" t="s">
         <v>81</v>
@@ -18405,7 +18404,7 @@
       </c>
       <c r="T194" s="6"/>
       <c r="U194" s="6"/>
-      <c r="V194" s="23"/>
+      <c r="V194" s="25"/>
       <c r="W194" s="6"/>
       <c r="X194" s="6" t="s">
         <v>81</v>
@@ -18482,7 +18481,7 @@
       </c>
       <c r="T195" s="6"/>
       <c r="U195" s="6"/>
-      <c r="V195" s="23"/>
+      <c r="V195" s="25"/>
       <c r="W195" s="6"/>
       <c r="X195" s="6" t="s">
         <v>81</v>
@@ -18665,7 +18664,7 @@
       <c r="AL197" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="AM197" s="26" t="n">
+      <c r="AM197" s="27" t="n">
         <v>501</v>
       </c>
     </row>
@@ -19453,7 +19452,7 @@
       <c r="AL207" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="AM207" s="26" t="n">
+      <c r="AM207" s="27" t="n">
         <v>502</v>
       </c>
     </row>
@@ -20004,7 +20003,7 @@
       <c r="AL214" s="19" t="s">
         <v>664</v>
       </c>
-      <c r="AM214" s="26" t="n">
+      <c r="AM214" s="27" t="n">
         <v>503</v>
       </c>
     </row>
@@ -20042,7 +20041,7 @@
       <c r="M215" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N215" s="25" t="n">
+      <c r="N215" s="24" t="n">
         <v>5449000005489</v>
       </c>
       <c r="O215" s="10"/>
@@ -20239,7 +20238,7 @@
       <c r="AL217" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="AM217" s="26" t="n">
+      <c r="AM217" s="27" t="n">
         <v>504</v>
       </c>
     </row>
@@ -20353,7 +20352,7 @@
       </c>
       <c r="K219" s="8"/>
       <c r="L219" s="8"/>
-      <c r="M219" s="26" t="s">
+      <c r="M219" s="27" t="s">
         <v>275</v>
       </c>
       <c r="N219" s="18" t="s">
@@ -20749,7 +20748,7 @@
       </c>
       <c r="T224" s="6"/>
       <c r="U224" s="6"/>
-      <c r="V224" s="28" t="s">
+      <c r="V224" s="23" t="s">
         <v>698</v>
       </c>
       <c r="W224" s="6"/>
@@ -20927,7 +20926,7 @@
       <c r="AE226" s="9" t="n">
         <v>0.01625</v>
       </c>
-      <c r="AF226" s="27"/>
+      <c r="AF226" s="28"/>
       <c r="AG226" s="6"/>
       <c r="AH226" s="6" t="s">
         <v>699</v>
@@ -21301,15 +21300,15 @@
       </c>
       <c r="K231" s="8"/>
       <c r="L231" s="8"/>
-      <c r="M231" s="28" t="s">
+      <c r="M231" s="23" t="s">
         <v>722</v>
       </c>
-      <c r="N231" s="25" t="s">
+      <c r="N231" s="24" t="s">
         <v>723</v>
       </c>
       <c r="O231" s="10"/>
       <c r="P231" s="10"/>
-      <c r="Q231" s="25" t="s">
+      <c r="Q231" s="24" t="s">
         <v>723</v>
       </c>
       <c r="R231" s="6" t="s">
@@ -22047,7 +22046,7 @@
       <c r="F241" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="G241" s="26" t="s">
+      <c r="G241" s="27" t="s">
         <v>762</v>
       </c>
       <c r="H241" s="6" t="s">
